--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +40,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -50,13 +57,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -73,7 +80,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -93,10 +100,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -403,13 +416,13 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="12" width="5.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="4" customWidth="1"/>
     <col min="14" max="32" width="5.625" style="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
@@ -451,7 +464,7 @@
       <c r="L1" s="1">
         <v>4</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="4">
         <v>1</v>
       </c>
       <c r="N1" s="1">
@@ -498,7 +511,7 @@
       <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="4">
         <v>5</v>
       </c>
       <c r="N2" s="1">
@@ -545,7 +558,7 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="4">
         <v>2</v>
       </c>
       <c r="N3" s="1">
@@ -592,7 +605,7 @@
       <c r="L4" s="1">
         <v>6</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="4">
         <v>0</v>
       </c>
       <c r="N4" s="1">
@@ -639,7 +652,7 @@
       <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="4">
         <v>3</v>
       </c>
       <c r="N5" s="1">
@@ -686,7 +699,7 @@
       <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="4">
         <v>0</v>
       </c>
       <c r="N6" s="1">
@@ -733,7 +746,7 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="4">
         <v>1</v>
       </c>
       <c r="N7" s="1">
@@ -780,7 +793,7 @@
       <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="4">
         <v>2</v>
       </c>
       <c r="N8" s="1">
@@ -827,7 +840,7 @@
       <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="4">
         <v>3</v>
       </c>
       <c r="N9" s="1">
@@ -874,7 +887,7 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="1">
@@ -921,7 +934,7 @@
       <c r="L11" s="1">
         <v>2</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="1">
@@ -968,7 +981,7 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="4">
         <v>1</v>
       </c>
       <c r="N12" s="1">
@@ -998,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1015,19 +1028,19 @@
       <c r="L13" s="1">
         <v>4</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="1">
         <v>3</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -1044,6 +1057,9 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
       <c r="H14" s="1">
         <v>4</v>
       </c>
@@ -1059,14 +1075,20 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
@@ -1085,6 +1107,9 @@
       <c r="H15" s="1">
         <v>5</v>
       </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
       <c r="J15" s="1">
         <v>2</v>
       </c>
@@ -1094,7 +1119,7 @@
       <c r="L15" s="1">
         <v>8</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="4">
         <v>5</v>
       </c>
       <c r="N15" s="1">
@@ -1111,6 +1136,9 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
@@ -1124,9 +1152,9 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
+        <v>2</v>
+      </c>
+      <c r="M16" s="4">
         <v>1</v>
       </c>
       <c r="N16" s="1">
@@ -1135,7 +1163,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1143,6 +1171,9 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
@@ -1150,12 +1181,12 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
-      </c>
-      <c r="M17" s="8">
+        <v>4</v>
+      </c>
+      <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="1">
@@ -1175,7 +1206,7 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="4">
         <v>1</v>
       </c>
       <c r="N18" s="1">
@@ -1195,7 +1226,7 @@
       <c r="H19" s="1">
         <v>3</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="4">
         <v>1</v>
       </c>
       <c r="N19" s="1">
@@ -1215,32 +1246,41 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="4">
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1251,7 +1291,7 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1262,16 +1302,19 @@
       <c r="H24" s="1">
         <v>2</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1282,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:Z95"/>
+  <dimension ref="A76:Z101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="P101" sqref="P101"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="R105" sqref="R105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1971,15 +2014,16 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="Q86" s="6">
         <v>8</v>
       </c>
-      <c r="R86" s="3">
-        <v>1</v>
-      </c>
-      <c r="S86" s="3">
-        <v>4</v>
-      </c>
+      <c r="R86" s="6">
+        <v>1</v>
+      </c>
+      <c r="S86" s="6">
+        <v>4</v>
+      </c>
+      <c r="T86" s="5"/>
       <c r="V86" s="3">
         <v>0</v>
       </c>
@@ -2033,16 +2077,16 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-      <c r="Q87" s="3">
-        <v>1</v>
-      </c>
-      <c r="R87" s="3">
-        <v>2</v>
-      </c>
-      <c r="S87" s="3">
-        <v>4</v>
-      </c>
-      <c r="T87" s="3"/>
+      <c r="Q87" s="6">
+        <v>1</v>
+      </c>
+      <c r="R87" s="6">
+        <v>2</v>
+      </c>
+      <c r="S87" s="6">
+        <v>4</v>
+      </c>
+      <c r="T87" s="6"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3">
         <v>0</v>
@@ -2091,21 +2135,22 @@
       <c r="L88" s="1">
         <v>19</v>
       </c>
-      <c r="O88" s="3">
-        <v>0</v>
-      </c>
-      <c r="P88" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="3">
-        <v>2</v>
-      </c>
-      <c r="R88" s="3">
-        <v>0</v>
-      </c>
-      <c r="S88" s="7">
+      <c r="O88" s="6">
+        <v>0</v>
+      </c>
+      <c r="P88" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>2</v>
+      </c>
+      <c r="R88" s="6">
+        <v>0</v>
+      </c>
+      <c r="S88" s="6">
         <v>6</v>
       </c>
+      <c r="T88" s="5"/>
       <c r="V88" s="3">
         <v>0</v>
       </c>
@@ -2153,21 +2198,22 @@
       <c r="L89" s="1">
         <v>4</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>3</v>
-      </c>
-      <c r="R89" s="2">
-        <v>6</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
+      <c r="O89" s="6">
+        <v>0</v>
+      </c>
+      <c r="P89" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="6">
+        <v>3</v>
+      </c>
+      <c r="R89" s="6">
+        <v>7</v>
+      </c>
+      <c r="S89" s="6">
+        <v>0</v>
+      </c>
+      <c r="T89" s="5"/>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -2179,6 +2225,9 @@
       </c>
       <c r="Y89" s="3">
         <v>3</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.15">
@@ -2212,21 +2261,22 @@
       <c r="L90" s="1">
         <v>7</v>
       </c>
-      <c r="O90" s="3">
-        <v>0</v>
-      </c>
-      <c r="P90" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="3">
-        <v>1</v>
-      </c>
-      <c r="R90" s="2">
-        <v>5</v>
-      </c>
-      <c r="S90" s="3">
-        <v>1</v>
-      </c>
+      <c r="O90" s="6">
+        <v>0</v>
+      </c>
+      <c r="P90" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="6">
+        <v>1</v>
+      </c>
+      <c r="R90" s="5">
+        <v>7</v>
+      </c>
+      <c r="S90" s="6">
+        <v>1</v>
+      </c>
+      <c r="T90" s="5"/>
       <c r="V90" s="3">
         <v>0</v>
       </c>
@@ -2271,21 +2321,22 @@
       <c r="L91" s="1">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>1</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="7">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3">
-        <v>2</v>
-      </c>
-      <c r="S91" s="3">
-        <v>2</v>
-      </c>
+      <c r="O91" s="6">
+        <v>1</v>
+      </c>
+      <c r="P91" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="6">
+        <v>3</v>
+      </c>
+      <c r="R91" s="6">
+        <v>2</v>
+      </c>
+      <c r="S91" s="6">
+        <v>2</v>
+      </c>
+      <c r="T91" s="5"/>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -2333,31 +2384,36 @@
       <c r="L92" s="1">
         <v>4</v>
       </c>
-      <c r="O92" s="2">
-        <v>3</v>
-      </c>
-      <c r="P92" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="2">
-        <v>3</v>
-      </c>
-      <c r="R92" s="3">
-        <v>0</v>
-      </c>
-      <c r="S92" s="3">
-        <v>1</v>
-      </c>
-      <c r="V92" s="3">
-        <v>0</v>
-      </c>
-      <c r="W92" s="3">
-        <v>0</v>
-      </c>
-      <c r="X92" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y92" s="3"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="5">
+        <v>5</v>
+      </c>
+      <c r="P92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="6">
+        <v>3</v>
+      </c>
+      <c r="R92" s="6">
+        <v>0</v>
+      </c>
+      <c r="S92" s="6">
+        <v>1</v>
+      </c>
+      <c r="T92" s="5"/>
+      <c r="V92" s="6">
+        <v>0</v>
+      </c>
+      <c r="W92" s="6">
+        <v>0</v>
+      </c>
+      <c r="X92" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z92" s="5"/>
     </row>
     <row r="93" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
@@ -2393,17 +2449,17 @@
       <c r="O93" s="6">
         <v>0</v>
       </c>
-      <c r="P93" s="5">
+      <c r="P93" s="6">
         <v>2</v>
       </c>
       <c r="Q93" s="6">
         <v>0</v>
       </c>
-      <c r="R93" s="5">
+      <c r="R93" s="6">
         <v>2</v>
       </c>
       <c r="S93" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
@@ -2413,8 +2469,12 @@
       <c r="W93" s="6">
         <v>0</v>
       </c>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
+      <c r="X93" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y93" s="6">
+        <v>2</v>
+      </c>
       <c r="Z93" s="5"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.15">
@@ -2448,27 +2508,36 @@
       <c r="L94" s="1">
         <v>2</v>
       </c>
-      <c r="O94" s="2">
-        <v>1</v>
-      </c>
-      <c r="P94" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="2">
-        <v>1</v>
-      </c>
-      <c r="R94" s="7">
-        <v>0</v>
-      </c>
-      <c r="S94" s="7">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
+      <c r="N94" s="4"/>
+      <c r="O94" s="6">
+        <v>2</v>
+      </c>
+      <c r="P94" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>3</v>
+      </c>
+      <c r="R94" s="6">
+        <v>0</v>
+      </c>
+      <c r="S94" s="6">
+        <v>0</v>
+      </c>
+      <c r="T94" s="5"/>
+      <c r="V94" s="6">
+        <v>0</v>
+      </c>
+      <c r="W94" s="6">
+        <v>0</v>
+      </c>
+      <c r="X94" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y94" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z94" s="5"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
@@ -2501,21 +2570,213 @@
       <c r="L95" s="1">
         <v>8</v>
       </c>
-      <c r="O95" s="2">
-        <v>0</v>
-      </c>
-      <c r="P95" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="2">
-        <v>0</v>
-      </c>
-      <c r="R95" s="2">
-        <v>0</v>
-      </c>
-      <c r="S95" s="2">
-        <v>0</v>
-      </c>
+      <c r="N95" s="4"/>
+      <c r="O95" s="6">
+        <v>0</v>
+      </c>
+      <c r="P95" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="5">
+        <v>2</v>
+      </c>
+      <c r="R95" s="5">
+        <v>2</v>
+      </c>
+      <c r="S95" s="6">
+        <v>1</v>
+      </c>
+      <c r="T95" s="5"/>
+      <c r="V95" s="6">
+        <v>0</v>
+      </c>
+      <c r="W95" s="6">
+        <v>1</v>
+      </c>
+      <c r="X95" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1">
+        <v>2</v>
+      </c>
+      <c r="K96" s="1">
+        <v>2</v>
+      </c>
+      <c r="L96" s="1">
+        <v>3</v>
+      </c>
+      <c r="N96" s="4"/>
+      <c r="O96" s="6">
+        <v>0</v>
+      </c>
+      <c r="P96" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="6">
+        <v>0</v>
+      </c>
+      <c r="R96" s="5">
+        <v>1</v>
+      </c>
+      <c r="S96" s="5">
+        <v>1</v>
+      </c>
+      <c r="T96" s="5"/>
+      <c r="V96" s="6">
+        <v>0</v>
+      </c>
+      <c r="W96" s="6">
+        <v>0</v>
+      </c>
+      <c r="X96" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>7</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>2</v>
+      </c>
+      <c r="L97" s="1">
+        <v>7</v>
+      </c>
+      <c r="N97" s="4"/>
+      <c r="O97" s="5">
+        <v>0</v>
+      </c>
+      <c r="P97" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>0</v>
+      </c>
+      <c r="R97" s="5">
+        <v>0</v>
+      </c>
+      <c r="S97" s="5">
+        <v>0</v>
+      </c>
+      <c r="T97" s="5"/>
+      <c r="V97" s="5">
+        <v>0</v>
+      </c>
+      <c r="W97" s="5">
+        <v>0</v>
+      </c>
+      <c r="X97" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
+        <v>2</v>
+      </c>
+      <c r="L98" s="1">
+        <v>5</v>
+      </c>
+      <c r="N98" s="4"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="N99" s="4"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="N100" s="4"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2526,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U95"/>
+  <dimension ref="A76:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="W99" sqref="W99"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2848,6 +3109,93 @@
         <v>4</v>
       </c>
     </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>2</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>0</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0</v>
+      </c>
+      <c r="S96" s="1">
+        <v>1</v>
+      </c>
+      <c r="T96" s="1">
+        <v>3</v>
+      </c>
+      <c r="U96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>1</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0</v>
+      </c>
+      <c r="R97" s="1">
+        <v>0</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1">
+        <v>1</v>
+      </c>
+      <c r="U97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2856,12 +3204,123 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A90:I97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="32" width="5.625" style="8" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="7">
+        <v>2</v>
+      </c>
+      <c r="C90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="9">
+        <v>1</v>
+      </c>
+      <c r="B91" s="9">
+        <v>1</v>
+      </c>
+      <c r="C91" s="9">
+        <v>1</v>
+      </c>
+      <c r="D91" s="9">
+        <v>1</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="9">
+        <v>1</v>
+      </c>
+      <c r="B92" s="7">
+        <v>3</v>
+      </c>
+      <c r="E92" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>2</v>
+      </c>
+      <c r="B93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="7">
+        <v>2</v>
+      </c>
+      <c r="B94" s="9">
+        <v>1</v>
+      </c>
+      <c r="C94" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
+        <v>2</v>
+      </c>
+      <c r="D95" s="9">
+        <v>1</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
+      <c r="I95" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="9">
+        <v>1</v>
+      </c>
+      <c r="B96" s="9">
+        <v>1</v>
+      </c>
+      <c r="C96" s="7">
+        <v>2</v>
+      </c>
+      <c r="D96" s="9">
+        <v>1</v>
+      </c>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>2</v>
+      </c>
+      <c r="B97" s="9">
+        <v>1</v>
+      </c>
+      <c r="C97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
@@ -1327,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A76:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="R105" sqref="R105"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="V106" sqref="V106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2790,7 +2791,7 @@
   <dimension ref="A76:U98"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+      <selection activeCell="U108" sqref="U108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3324,4 +3325,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,10 @@
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,16 +418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="12" width="5.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="4" customWidth="1"/>
+    <col min="1" max="9" width="5.625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="5.625" style="4" customWidth="1"/>
     <col min="14" max="32" width="5.625" style="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
@@ -456,13 +460,13 @@
       <c r="I1" s="1">
         <v>2</v>
       </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1">
+      <c r="J1" s="4">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4">
         <v>4</v>
       </c>
       <c r="M1" s="4">
@@ -503,13 +507,13 @@
       <c r="I2" s="1">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>6</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
         <v>3</v>
       </c>
       <c r="M2" s="4">
@@ -550,13 +554,13 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="J3" s="4">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
         <v>0</v>
       </c>
       <c r="M3" s="4">
@@ -597,13 +601,13 @@
       <c r="I4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
         <v>6</v>
       </c>
       <c r="M4" s="4">
@@ -644,13 +648,13 @@
       <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
         <v>5</v>
       </c>
       <c r="M5" s="4">
@@ -691,13 +695,13 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4">
         <v>4</v>
       </c>
       <c r="M6" s="4">
@@ -738,13 +742,13 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
         <v>0</v>
       </c>
       <c r="M7" s="4">
@@ -785,13 +789,13 @@
       <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4">
         <v>3</v>
       </c>
       <c r="M8" s="4">
@@ -832,13 +836,13 @@
       <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" s="4">
@@ -879,13 +883,13 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
         <v>0</v>
       </c>
       <c r="M10" s="4">
@@ -926,13 +930,13 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
         <v>2</v>
       </c>
       <c r="M11" s="4">
@@ -973,13 +977,13 @@
       <c r="I12" s="1">
         <v>7</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>6</v>
       </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
         <v>0</v>
       </c>
       <c r="M12" s="4">
@@ -1020,13 +1024,13 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4">
         <v>4</v>
       </c>
       <c r="M13" s="4">
@@ -1067,13 +1071,13 @@
       <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
         <v>0</v>
       </c>
       <c r="M14" s="4">
@@ -1083,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -1105,19 +1109,22 @@
       <c r="F15" s="1">
         <v>2</v>
       </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
       <c r="H15" s="1">
         <v>5</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2</v>
-      </c>
-      <c r="K15" s="1">
-        <v>4</v>
-      </c>
-      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>4</v>
+      </c>
+      <c r="L15" s="4">
         <v>8</v>
       </c>
       <c r="M15" s="4">
@@ -1126,8 +1133,14 @@
       <c r="N15" s="1">
         <v>2</v>
       </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
@@ -1143,17 +1156,20 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
-        <v>7</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2</v>
+      <c r="J16" s="4">
+        <v>7</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3</v>
       </c>
       <c r="M16" s="4">
         <v>1</v>
@@ -1164,7 +1180,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1181,11 +1197,14 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="1">
-        <v>7</v>
-      </c>
-      <c r="K17" s="1">
-        <v>4</v>
+      <c r="J17" s="4">
+        <v>7</v>
+      </c>
+      <c r="K17" s="4">
+        <v>6</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -1201,10 +1220,22 @@
       <c r="D18" s="1">
         <v>7</v>
       </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
         <v>0</v>
       </c>
       <c r="M18" s="4">
@@ -1251,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
@@ -1259,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -1273,6 +1304,9 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="F22" s="1">
@@ -1309,13 +1343,32 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="F25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1326,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:Z101"/>
+  <dimension ref="A76:Z106"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="V106" sqref="V106"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="Z92" sqref="Z92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2271,7 +2324,7 @@
       <c r="Q90" s="6">
         <v>1</v>
       </c>
-      <c r="R90" s="5">
+      <c r="R90" s="6">
         <v>7</v>
       </c>
       <c r="S90" s="6">
@@ -2290,6 +2343,9 @@
       <c r="Y90" s="3">
         <v>1</v>
       </c>
+      <c r="Z90" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
@@ -2387,7 +2443,7 @@
       </c>
       <c r="N92" s="4"/>
       <c r="O92" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P92" s="6">
         <v>0</v>
@@ -2414,7 +2470,9 @@
       <c r="Y92" s="6">
         <v>3</v>
       </c>
-      <c r="Z92" s="5"/>
+      <c r="Z92" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="93" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
@@ -2459,8 +2517,8 @@
       <c r="R93" s="6">
         <v>2</v>
       </c>
-      <c r="S93" s="5">
-        <v>4</v>
+      <c r="S93" s="6">
+        <v>6</v>
       </c>
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
@@ -2476,7 +2534,9 @@
       <c r="Y93" s="6">
         <v>2</v>
       </c>
-      <c r="Z93" s="5"/>
+      <c r="Z93" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
@@ -2516,8 +2576,8 @@
       <c r="P94" s="6">
         <v>1</v>
       </c>
-      <c r="Q94" s="5">
-        <v>3</v>
+      <c r="Q94" s="6">
+        <v>4</v>
       </c>
       <c r="R94" s="6">
         <v>0</v>
@@ -2538,7 +2598,9 @@
       <c r="Y94" s="6">
         <v>2</v>
       </c>
-      <c r="Z94" s="5"/>
+      <c r="Z94" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
@@ -2575,14 +2637,14 @@
       <c r="O95" s="6">
         <v>0</v>
       </c>
-      <c r="P95" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q95" s="5">
+      <c r="P95" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="6">
         <v>2</v>
       </c>
       <c r="R95" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S95" s="6">
         <v>1</v>
@@ -2594,11 +2656,15 @@
       <c r="W95" s="6">
         <v>1</v>
       </c>
-      <c r="X95" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
+      <c r="X95" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y95" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z95" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
@@ -2635,17 +2701,17 @@
       <c r="O96" s="6">
         <v>0</v>
       </c>
-      <c r="P96" s="5">
-        <v>1</v>
+      <c r="P96" s="6">
+        <v>3</v>
       </c>
       <c r="Q96" s="6">
         <v>0</v>
       </c>
-      <c r="R96" s="5">
-        <v>1</v>
+      <c r="R96" s="6">
+        <v>2</v>
       </c>
       <c r="S96" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T96" s="5"/>
       <c r="V96" s="6">
@@ -2654,10 +2720,12 @@
       <c r="W96" s="6">
         <v>0</v>
       </c>
-      <c r="X96" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y96" s="5"/>
+      <c r="X96" s="6">
+        <v>2</v>
+      </c>
+      <c r="Y96" s="6">
+        <v>3</v>
+      </c>
       <c r="Z96" s="5"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.15">
@@ -2692,92 +2760,264 @@
         <v>7</v>
       </c>
       <c r="N97" s="4"/>
-      <c r="O97" s="5">
+      <c r="O97" s="6">
         <v>0</v>
       </c>
       <c r="P97" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="5">
-        <v>0</v>
-      </c>
-      <c r="R97" s="5">
-        <v>0</v>
-      </c>
-      <c r="S97" s="5">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Q97" s="6">
+        <v>0</v>
+      </c>
+      <c r="R97" s="6">
+        <v>0</v>
+      </c>
+      <c r="S97" s="6">
+        <v>1</v>
       </c>
       <c r="T97" s="5"/>
-      <c r="V97" s="5">
-        <v>0</v>
-      </c>
-      <c r="W97" s="5">
-        <v>0</v>
-      </c>
-      <c r="X97" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="5"/>
+      <c r="V97" s="6">
+        <v>0</v>
+      </c>
+      <c r="W97" s="6">
+        <v>0</v>
+      </c>
+      <c r="X97" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="6">
+        <v>1</v>
+      </c>
       <c r="Z97" s="5"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>7</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2</v>
+      </c>
       <c r="H98" s="1">
         <v>0</v>
       </c>
       <c r="I98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="1">
         <v>2</v>
       </c>
       <c r="L98" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N98" s="4"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
+      <c r="O98" s="5">
+        <v>2</v>
+      </c>
+      <c r="P98" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>0</v>
+      </c>
+      <c r="R98" s="5">
+        <v>2</v>
+      </c>
+      <c r="S98" s="6">
+        <v>1</v>
+      </c>
       <c r="T98" s="5"/>
-      <c r="V98" s="5"/>
-      <c r="W98" s="5"/>
+      <c r="V98" s="6">
+        <v>0</v>
+      </c>
+      <c r="W98" s="6">
+        <v>1</v>
+      </c>
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1">
+        <v>3</v>
+      </c>
+      <c r="L99" s="1">
+        <v>4</v>
+      </c>
       <c r="N99" s="4"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
+      <c r="O99" s="6">
+        <v>0</v>
+      </c>
+      <c r="P99" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>1</v>
+      </c>
+      <c r="R99" s="6">
+        <v>0</v>
+      </c>
+      <c r="S99" s="5">
+        <v>1</v>
+      </c>
       <c r="T99" s="5"/>
-      <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
-      <c r="X99" s="5"/>
-      <c r="Y99" s="5"/>
+      <c r="V99" s="6">
+        <v>0</v>
+      </c>
+      <c r="W99" s="6">
+        <v>0</v>
+      </c>
+      <c r="X99" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="5">
+        <v>1</v>
+      </c>
       <c r="Z99" s="5"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>3</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1">
+        <v>3</v>
+      </c>
+      <c r="L100" s="1">
+        <v>6</v>
+      </c>
       <c r="N100" s="4"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
+      <c r="O100" s="5">
+        <v>0</v>
+      </c>
+      <c r="P100" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>0</v>
+      </c>
+      <c r="R100" s="5">
+        <v>0</v>
+      </c>
+      <c r="S100" s="5">
+        <v>0</v>
+      </c>
       <c r="T100" s="5"/>
+      <c r="V100" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1</v>
+      </c>
+      <c r="K101" s="1">
+        <v>5</v>
+      </c>
+      <c r="L101" s="1">
+        <v>8</v>
+      </c>
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2788,10 +3028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U98"/>
+  <dimension ref="A76:U100"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="U108" sqref="U108"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3196,6 +3436,124 @@
       <c r="A98" s="1">
         <v>3</v>
       </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>2</v>
+      </c>
+      <c r="K98" s="1">
+        <v>2</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>0</v>
+      </c>
+      <c r="R98" s="1">
+        <v>0</v>
+      </c>
+      <c r="S98" s="1">
+        <v>2</v>
+      </c>
+      <c r="T98" s="1">
+        <v>7</v>
+      </c>
+      <c r="U98" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>0</v>
+      </c>
+      <c r="R99" s="1">
+        <v>1</v>
+      </c>
+      <c r="S99" s="1">
+        <v>2</v>
+      </c>
+      <c r="T99" s="1">
+        <v>2</v>
+      </c>
+      <c r="U99" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>0</v>
+      </c>
+      <c r="R100" s="1">
+        <v>1</v>
+      </c>
+      <c r="S100" s="1">
+        <v>2</v>
+      </c>
+      <c r="T100" s="1">
+        <v>3</v>
+      </c>
+      <c r="U100" s="1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3205,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A90:I97"/>
+  <dimension ref="A90:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3307,7 +3665,7 @@
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="7">
         <v>2</v>
       </c>
@@ -3318,6 +3676,65 @@
         <v>1</v>
       </c>
       <c r="H97" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="7">
+        <v>3</v>
+      </c>
+      <c r="C98" s="9">
+        <v>1</v>
+      </c>
+      <c r="H98" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="9">
+        <v>1</v>
+      </c>
+      <c r="B99" s="9">
+        <v>1</v>
+      </c>
+      <c r="C99" s="9">
+        <v>1</v>
+      </c>
+      <c r="D99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="9">
+        <v>1</v>
+      </c>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="7">
+        <v>2</v>
+      </c>
+      <c r="B100" s="9">
+        <v>1</v>
+      </c>
+      <c r="D100" s="9">
+        <v>1</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="9">
+        <v>1</v>
+      </c>
+      <c r="B101" s="7">
+        <v>2</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="9">
+        <v>1</v>
+      </c>
+      <c r="I101" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3331,7 +3748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -15,10 +15,6 @@
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1139,7 +1135,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1157,9 +1153,12 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="4">
@@ -1177,10 +1176,13 @@
       <c r="N16" s="1">
         <v>0</v>
       </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1193,6 +1195,9 @@
       </c>
       <c r="F17" s="1">
         <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1221,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1230,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
@@ -1258,6 +1263,9 @@
       <c r="H19" s="1">
         <v>3</v>
       </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
       <c r="M19" s="4">
         <v>1</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
@@ -1301,13 +1309,16 @@
       <c r="M21" s="4">
         <v>0</v>
       </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C22" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1357,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="4">
         <v>1</v>
@@ -1367,7 +1378,26 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
       <c r="M27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1379,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:Z106"/>
+  <dimension ref="A75:Z106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="Z92" sqref="Z92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1393,6 +1423,23 @@
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>7</v>
+      </c>
+    </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>4</v>
@@ -2443,7 +2490,7 @@
       </c>
       <c r="N92" s="4"/>
       <c r="O92" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P92" s="6">
         <v>0</v>
@@ -2470,9 +2517,7 @@
       <c r="Y92" s="6">
         <v>3</v>
       </c>
-      <c r="Z92" s="5">
-        <v>8</v>
-      </c>
+      <c r="Z92" s="5"/>
     </row>
     <row r="93" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
@@ -2643,8 +2688,8 @@
       <c r="Q95" s="6">
         <v>2</v>
       </c>
-      <c r="R95" s="5">
-        <v>5</v>
+      <c r="R95" s="6">
+        <v>6</v>
       </c>
       <c r="S95" s="6">
         <v>1</v>
@@ -2662,8 +2707,8 @@
       <c r="Y95" s="6">
         <v>3</v>
       </c>
-      <c r="Z95" s="5">
-        <v>5</v>
+      <c r="Z95" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.15">
@@ -2710,7 +2755,7 @@
       <c r="R96" s="6">
         <v>2</v>
       </c>
-      <c r="S96" s="5">
+      <c r="S96" s="6">
         <v>4</v>
       </c>
       <c r="T96" s="5"/>
@@ -2726,7 +2771,9 @@
       <c r="Y96" s="6">
         <v>3</v>
       </c>
-      <c r="Z96" s="5"/>
+      <c r="Z96" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
@@ -2764,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q97" s="6">
         <v>0</v>
@@ -2823,16 +2870,16 @@
       </c>
       <c r="N98" s="4"/>
       <c r="O98" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P98" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q98" s="6">
         <v>0</v>
       </c>
       <c r="R98" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S98" s="6">
         <v>1</v>
@@ -2883,16 +2930,16 @@
       <c r="O99" s="6">
         <v>0</v>
       </c>
-      <c r="P99" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="5">
-        <v>1</v>
+      <c r="P99" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>2</v>
       </c>
       <c r="R99" s="6">
         <v>0</v>
       </c>
-      <c r="S99" s="5">
+      <c r="S99" s="6">
         <v>1</v>
       </c>
       <c r="T99" s="5"/>
@@ -2902,13 +2949,15 @@
       <c r="W99" s="6">
         <v>0</v>
       </c>
-      <c r="X99" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y99" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z99" s="5"/>
+      <c r="X99" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z99" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
@@ -2943,55 +2992,135 @@
       </c>
       <c r="N100" s="4"/>
       <c r="O100" s="5">
-        <v>0</v>
-      </c>
-      <c r="P100" s="5">
+        <v>2</v>
+      </c>
+      <c r="P100" s="6">
         <v>0</v>
       </c>
       <c r="Q100" s="5">
-        <v>0</v>
-      </c>
-      <c r="R100" s="5">
-        <v>0</v>
-      </c>
-      <c r="S100" s="5">
+        <v>2</v>
+      </c>
+      <c r="R100" s="6">
+        <v>0</v>
+      </c>
+      <c r="S100" s="6">
         <v>0</v>
       </c>
       <c r="T100" s="5"/>
-      <c r="V100" s="2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
       <c r="H101" s="1">
         <v>0</v>
       </c>
       <c r="I101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L101" s="1">
-        <v>8</v>
-      </c>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="N101" s="4"/>
+      <c r="O101" s="6">
+        <v>0</v>
+      </c>
+      <c r="P101" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="5">
+        <v>1</v>
+      </c>
+      <c r="R101" s="6">
+        <v>0</v>
+      </c>
+      <c r="S101" s="5">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>6</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>2</v>
+      </c>
+      <c r="K102" s="1">
+        <v>2</v>
+      </c>
+      <c r="L102" s="1">
+        <v>6</v>
+      </c>
+      <c r="N102" s="4"/>
+      <c r="O102" s="5">
+        <v>0</v>
+      </c>
+      <c r="P102" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="5">
+        <v>0</v>
+      </c>
+      <c r="R102" s="5">
+        <v>0</v>
+      </c>
+      <c r="S102" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="N103" s="4"/>
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5"/>
@@ -2999,6 +3128,7 @@
       <c r="S103" s="5"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="N104" s="4"/>
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
@@ -3006,6 +3136,7 @@
       <c r="S104" s="5"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="N105" s="4"/>
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
@@ -3028,10 +3159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U100"/>
+  <dimension ref="A76:U102"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3555,6 +3686,88 @@
         <v>4</v>
       </c>
     </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>1</v>
+      </c>
+      <c r="L101" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>0</v>
+      </c>
+      <c r="R101" s="1">
+        <v>0</v>
+      </c>
+      <c r="S101" s="1">
+        <v>1</v>
+      </c>
+      <c r="T101" s="1">
+        <v>1</v>
+      </c>
+      <c r="U101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>2</v>
+      </c>
+      <c r="B102" s="1">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1">
+        <v>2</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0</v>
+      </c>
+      <c r="R102" s="1">
+        <v>0</v>
+      </c>
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
+      <c r="T102" s="1">
+        <v>2</v>
+      </c>
+      <c r="U102" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3563,10 +3776,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A90:I101"/>
+  <dimension ref="A90:I103"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+      <selection activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3723,20 +3936,40 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="9">
-        <v>1</v>
-      </c>
-      <c r="B101" s="7">
-        <v>2</v>
+      <c r="A101" s="7">
+        <v>3</v>
+      </c>
+      <c r="B101" s="9">
+        <v>1</v>
       </c>
       <c r="C101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="9">
-        <v>1</v>
-      </c>
-      <c r="I101" s="9">
-        <v>1</v>
-      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="9">
+        <v>1</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" s="7">
+        <v>2</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="7">
+        <v>2</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="G103" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O1" activeCellId="4" sqref="A1:A1048576 F1:F1048576 I1:I1048576 J1:J1048576 O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="4">
         <v>7</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
@@ -1202,6 +1202,9 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
       <c r="J17" s="4">
         <v>7</v>
       </c>
@@ -1219,6 +1222,9 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
       <c r="C18" s="1">
         <v>4</v>
       </c>
@@ -1231,14 +1237,17 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K18" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
@@ -1251,20 +1260,29 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>3</v>
       </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
       <c r="L19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19" s="4">
         <v>1</v>
@@ -1310,15 +1328,15 @@
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C22" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1328,6 +1346,9 @@
       </c>
       <c r="M22" s="4">
         <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
@@ -1389,6 +1410,9 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
       <c r="M28" s="4">
         <v>0</v>
       </c>
@@ -1397,8 +1421,16 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
       <c r="M29" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="F30" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1409,38 +1441,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A75:Z106"/>
+  <dimension ref="A75:AD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="W102" sqref="W102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="14" width="5.125" style="1" customWidth="1"/>
-    <col min="15" max="26" width="5.125" style="2" customWidth="1"/>
-    <col min="27" max="30" width="5.125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="1" max="12" width="5.125" style="1" customWidth="1"/>
+    <col min="13" max="23" width="5.125" style="2" customWidth="1"/>
+    <col min="24" max="36" width="5.125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
       <c r="H75" s="1">
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" s="1">
-        <v>2</v>
-      </c>
-      <c r="L75" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>4</v>
       </c>
@@ -1456,55 +1488,54 @@
       <c r="E76" s="1">
         <v>2</v>
       </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
       <c r="H76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K76" s="1">
-        <v>3</v>
-      </c>
-      <c r="L76" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3">
+        <v>7</v>
       </c>
       <c r="O76" s="3">
         <v>1</v>
       </c>
       <c r="P76" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q76" s="3">
-        <v>1</v>
-      </c>
-      <c r="R76" s="3">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R76" s="3"/>
       <c r="S76" s="3">
         <v>0</v>
       </c>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
+      <c r="T76" s="3">
+        <v>1</v>
+      </c>
+      <c r="U76" s="3">
+        <v>1</v>
+      </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W76" s="3">
-        <v>1</v>
-      </c>
-      <c r="X76" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -1520,55 +1551,54 @@
       <c r="E77" s="1">
         <v>4</v>
       </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
       <c r="H77" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" s="1">
         <v>2</v>
       </c>
       <c r="J77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K77" s="1">
-        <v>4</v>
-      </c>
-      <c r="L77" s="1">
         <v>6</v>
       </c>
+      <c r="M77" s="3">
+        <v>2</v>
+      </c>
+      <c r="N77" s="3">
+        <v>5</v>
+      </c>
       <c r="O77" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P77" s="3">
         <v>5</v>
       </c>
       <c r="Q77" s="3">
-        <v>0</v>
-      </c>
-      <c r="R77" s="3">
+        <v>2</v>
+      </c>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>2</v>
+      </c>
+      <c r="U77" s="3">
+        <v>2</v>
+      </c>
+      <c r="V77" s="3">
         <v>5</v>
       </c>
-      <c r="S77" s="3">
-        <v>2</v>
-      </c>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3">
-        <v>0</v>
-      </c>
       <c r="W77" s="3">
-        <v>2</v>
-      </c>
-      <c r="X77" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y77" s="3">
         <v>5</v>
       </c>
-      <c r="Z77" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -1584,55 +1614,54 @@
       <c r="E78" s="1">
         <v>1</v>
       </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="1">
         <v>1</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K78" s="1">
-        <v>2</v>
-      </c>
-      <c r="L78" s="1">
         <v>5</v>
       </c>
+      <c r="M78" s="3">
+        <v>3</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0</v>
+      </c>
       <c r="O78" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P78" s="3">
         <v>0</v>
       </c>
       <c r="Q78" s="3">
-        <v>1</v>
-      </c>
-      <c r="R78" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R78" s="3"/>
       <c r="S78" s="3">
-        <v>2</v>
-      </c>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="3">
+        <v>0</v>
+      </c>
+      <c r="U78" s="3">
+        <v>1</v>
+      </c>
       <c r="V78" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W78" s="3">
-        <v>0</v>
-      </c>
-      <c r="X78" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y78" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z78" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>3</v>
       </c>
@@ -1648,55 +1677,54 @@
       <c r="E79" s="1">
         <v>2</v>
       </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
       <c r="H79" s="1">
         <v>0</v>
       </c>
       <c r="I79" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K79" s="1">
         <v>3</v>
       </c>
-      <c r="L79" s="1">
-        <v>3</v>
+      <c r="M79" s="3">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
+        <v>1</v>
       </c>
       <c r="O79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q79" s="3">
-        <v>1</v>
-      </c>
-      <c r="R79" s="3">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R79" s="3"/>
       <c r="S79" s="3">
         <v>0</v>
       </c>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
+      <c r="T79" s="3">
+        <v>0</v>
+      </c>
+      <c r="U79" s="3">
+        <v>1</v>
+      </c>
       <c r="V79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79" s="3">
-        <v>0</v>
-      </c>
-      <c r="X79" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y79" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z79" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -1712,55 +1740,54 @@
       <c r="E80" s="1">
         <v>2</v>
       </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
       <c r="H80" s="1">
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" s="1">
         <v>2</v>
       </c>
-      <c r="L80" s="1">
+      <c r="M80" s="3">
+        <v>3</v>
+      </c>
+      <c r="N80" s="3">
         <v>2</v>
       </c>
       <c r="O80" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P80" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q80" s="3">
-        <v>0</v>
-      </c>
-      <c r="R80" s="3">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R80" s="3"/>
       <c r="S80" s="3">
+        <v>0</v>
+      </c>
+      <c r="T80" s="3">
+        <v>2</v>
+      </c>
+      <c r="U80" s="3">
+        <v>3</v>
+      </c>
+      <c r="V80" s="3">
+        <v>4</v>
+      </c>
+      <c r="W80" s="3">
         <v>5</v>
       </c>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3">
-        <v>0</v>
-      </c>
-      <c r="W80" s="3">
-        <v>2</v>
-      </c>
-      <c r="X80" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y80" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z80" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>1</v>
       </c>
@@ -1776,55 +1803,54 @@
       <c r="E81" s="1">
         <v>5</v>
       </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
       <c r="H81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="1">
         <v>1</v>
       </c>
       <c r="J81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K81" s="1">
-        <v>2</v>
-      </c>
-      <c r="L81" s="1">
         <v>5</v>
       </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R81" s="3"/>
       <c r="S81" s="3">
-        <v>1</v>
-      </c>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -1840,6 +1866,9 @@
       <c r="E82" s="1">
         <v>2</v>
       </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
       <c r="H82" s="1">
         <v>0</v>
       </c>
@@ -1847,48 +1876,53 @@
         <v>0</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K82" s="1">
-        <v>2</v>
-      </c>
-      <c r="L82" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="M82" s="3">
+        <v>2</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0</v>
       </c>
       <c r="O82" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P82" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q82" s="3">
-        <v>3</v>
-      </c>
-      <c r="R82" s="3">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="R82" s="3"/>
       <c r="S82" s="3">
-        <v>7</v>
-      </c>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="3">
+        <v>2</v>
+      </c>
+      <c r="U82" s="3">
+        <v>3</v>
+      </c>
       <c r="V82" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W82" s="3">
-        <v>2</v>
-      </c>
-      <c r="X82" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y82" s="3">
-        <v>7</v>
-      </c>
-      <c r="Z82" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>2</v>
       </c>
@@ -1904,55 +1938,66 @@
       <c r="E83" s="1">
         <v>5</v>
       </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
       <c r="H83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K83" s="1">
         <v>5</v>
       </c>
-      <c r="L83" s="1">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>1</v>
+      </c>
+      <c r="W83" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC83" s="1">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>3</v>
       </c>
@@ -1968,6 +2013,9 @@
       <c r="E84" s="1">
         <v>0</v>
       </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
       <c r="H84" s="1">
         <v>0</v>
       </c>
@@ -1975,48 +2023,53 @@
         <v>0</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K84" s="1">
-        <v>3</v>
-      </c>
-      <c r="L84" s="1">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="M84" s="3">
+        <v>3</v>
+      </c>
+      <c r="N84" s="3">
+        <v>4</v>
       </c>
       <c r="O84" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P84" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="3">
-        <v>2</v>
-      </c>
-      <c r="R84" s="3">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R84" s="3"/>
       <c r="S84" s="3">
-        <v>1</v>
-      </c>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>1</v>
+      </c>
+      <c r="U84" s="3">
+        <v>2</v>
+      </c>
       <c r="V84" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W84" s="3">
-        <v>1</v>
-      </c>
-      <c r="X84" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y84" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z84" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="Z84" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB84" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -2032,23 +2085,29 @@
       <c r="E85" s="1">
         <v>4</v>
       </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
       <c r="H85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K85" s="1">
-        <v>3</v>
-      </c>
-      <c r="L85" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="M85" s="3">
+        <v>7</v>
+      </c>
+      <c r="N85" s="3">
+        <v>1</v>
       </c>
       <c r="O85" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P85" s="3">
         <v>1</v>
@@ -2056,29 +2115,38 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-      <c r="R85" s="3">
-        <v>1</v>
-      </c>
       <c r="S85" s="3">
         <v>0</v>
       </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>1</v>
+      </c>
       <c r="V85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W85" s="3">
-        <v>0</v>
-      </c>
-      <c r="X85" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y85" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z85" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="Z85" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC85" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD85" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -2094,54 +2162,65 @@
       <c r="E86" s="1">
         <v>5</v>
       </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
       <c r="H86" s="1">
         <v>0</v>
       </c>
       <c r="I86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K86" s="1">
-        <v>3</v>
-      </c>
-      <c r="L86" s="1">
         <v>5</v>
       </c>
-      <c r="O86" s="3">
-        <v>0</v>
-      </c>
-      <c r="P86" s="3">
-        <v>0</v>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="6">
+        <v>8</v>
+      </c>
+      <c r="P86" s="6">
+        <v>1</v>
       </c>
       <c r="Q86" s="6">
+        <v>4</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>1</v>
+      </c>
+      <c r="V86" s="3">
+        <v>4</v>
+      </c>
+      <c r="W86" s="3">
         <v>8</v>
       </c>
-      <c r="R86" s="6">
-        <v>1</v>
-      </c>
-      <c r="S86" s="6">
-        <v>4</v>
-      </c>
-      <c r="T86" s="5"/>
-      <c r="V86" s="3">
-        <v>0</v>
-      </c>
-      <c r="W86" s="3">
-        <v>0</v>
-      </c>
-      <c r="X86" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y86" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z86" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="Z86" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -2157,55 +2236,63 @@
       <c r="E87" s="1">
         <v>1</v>
       </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
       <c r="H87" s="1">
         <v>0</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
       </c>
       <c r="K87" s="1">
-        <v>1</v>
-      </c>
-      <c r="L87" s="1">
-        <v>2</v>
-      </c>
-      <c r="O87" s="3">
-        <v>3</v>
-      </c>
-      <c r="P87" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M87" s="3">
+        <v>3</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="6">
+        <v>1</v>
+      </c>
+      <c r="P87" s="6">
+        <v>2</v>
       </c>
       <c r="Q87" s="6">
-        <v>1</v>
-      </c>
-      <c r="R87" s="6">
-        <v>2</v>
-      </c>
-      <c r="S87" s="6">
-        <v>4</v>
-      </c>
-      <c r="T87" s="6"/>
-      <c r="U87" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>1</v>
+      </c>
+      <c r="U87" s="3">
+        <v>2</v>
+      </c>
       <c r="V87" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W87" s="3">
-        <v>1</v>
-      </c>
-      <c r="X87" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y87" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z87" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="Z87" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>19</v>
       </c>
@@ -2221,54 +2308,68 @@
       <c r="E88" s="1">
         <v>4</v>
       </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
       <c r="H88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K88" s="1">
-        <v>4</v>
-      </c>
-      <c r="L88" s="1">
         <v>19</v>
       </c>
+      <c r="M88" s="6">
+        <v>0</v>
+      </c>
+      <c r="N88" s="6">
+        <v>0</v>
+      </c>
       <c r="O88" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P88" s="6">
         <v>0</v>
       </c>
       <c r="Q88" s="6">
-        <v>2</v>
-      </c>
-      <c r="R88" s="6">
-        <v>0</v>
-      </c>
-      <c r="S88" s="6">
         <v>6</v>
       </c>
-      <c r="T88" s="5"/>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
       <c r="V88" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W88" s="3">
-        <v>0</v>
-      </c>
-      <c r="X88" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z88" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="Z88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -2284,6 +2385,9 @@
       <c r="E89" s="1">
         <v>0</v>
       </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
       <c r="H89" s="1">
         <v>0</v>
       </c>
@@ -2291,47 +2395,52 @@
         <v>0</v>
       </c>
       <c r="J89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="1">
-        <v>1</v>
-      </c>
-      <c r="L89" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="M89" s="6">
+        <v>0</v>
+      </c>
+      <c r="N89" s="6">
+        <v>1</v>
       </c>
       <c r="O89" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P89" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q89" s="6">
-        <v>3</v>
-      </c>
-      <c r="R89" s="6">
-        <v>7</v>
-      </c>
-      <c r="S89" s="6">
-        <v>0</v>
-      </c>
-      <c r="T89" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>1</v>
+      </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -2347,54 +2456,62 @@
       <c r="E90" s="1">
         <v>0</v>
       </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
       <c r="H90" s="1">
         <v>0</v>
       </c>
       <c r="I90" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K90" s="1">
         <v>7</v>
       </c>
-      <c r="L90" s="1">
-        <v>7</v>
+      <c r="M90" s="6">
+        <v>0</v>
+      </c>
+      <c r="N90" s="6">
+        <v>1</v>
       </c>
       <c r="O90" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q90" s="6">
         <v>1</v>
       </c>
-      <c r="R90" s="6">
-        <v>7</v>
-      </c>
-      <c r="S90" s="6">
-        <v>1</v>
-      </c>
-      <c r="T90" s="5"/>
+      <c r="S90" s="3">
+        <v>0</v>
+      </c>
+      <c r="T90" s="3">
+        <v>1</v>
+      </c>
+      <c r="U90" s="3">
+        <v>1</v>
+      </c>
       <c r="V90" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W90" s="3">
-        <v>1</v>
-      </c>
-      <c r="X90" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y90" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z90" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="Z90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -2410,54 +2527,68 @@
       <c r="E91" s="1">
         <v>4</v>
       </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
       <c r="H91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K91" s="1">
-        <v>3</v>
-      </c>
-      <c r="L91" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="M91" s="6">
+        <v>1</v>
+      </c>
+      <c r="N91" s="6">
+        <v>0</v>
       </c>
       <c r="O91" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P91" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q91" s="6">
-        <v>3</v>
-      </c>
-      <c r="R91" s="6">
-        <v>2</v>
-      </c>
-      <c r="S91" s="6">
-        <v>2</v>
-      </c>
-      <c r="T91" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>1</v>
+      </c>
+      <c r="U91" s="3">
+        <v>2</v>
+      </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W91" s="3">
-        <v>1</v>
-      </c>
-      <c r="X91" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -2473,8 +2604,11 @@
       <c r="E92" s="1">
         <v>1</v>
       </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
       <c r="H92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
@@ -2483,43 +2617,50 @@
         <v>1</v>
       </c>
       <c r="K92" s="1">
-        <v>1</v>
-      </c>
-      <c r="L92" s="1">
-        <v>4</v>
-      </c>
-      <c r="N92" s="4"/>
-      <c r="O92" s="5">
+        <v>4</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92" s="6">
         <v>10</v>
       </c>
+      <c r="N92" s="6">
+        <v>0</v>
+      </c>
+      <c r="O92" s="6">
+        <v>3</v>
+      </c>
       <c r="P92" s="6">
         <v>0</v>
       </c>
       <c r="Q92" s="6">
-        <v>3</v>
-      </c>
-      <c r="R92" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92" s="6">
-        <v>1</v>
-      </c>
-      <c r="T92" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="6">
+        <v>0</v>
+      </c>
+      <c r="U92" s="6">
+        <v>1</v>
+      </c>
       <c r="V92" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W92" s="6">
-        <v>0</v>
-      </c>
-      <c r="X92" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y92" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z92" s="5"/>
-    </row>
-    <row r="93" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="Z92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>1</v>
       </c>
@@ -2535,20 +2676,26 @@
       <c r="E93" s="4">
         <v>0</v>
       </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
       <c r="H93" s="4">
         <v>0</v>
       </c>
       <c r="I93" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K93" s="4">
-        <v>3</v>
-      </c>
-      <c r="L93" s="4">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="M93" s="6">
+        <v>0</v>
+      </c>
+      <c r="N93" s="6">
+        <v>2</v>
       </c>
       <c r="O93" s="6">
         <v>0</v>
@@ -2557,33 +2704,38 @@
         <v>2</v>
       </c>
       <c r="Q93" s="6">
-        <v>0</v>
-      </c>
-      <c r="R93" s="6">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="R93" s="5"/>
       <c r="S93" s="6">
+        <v>0</v>
+      </c>
+      <c r="T93" s="6">
+        <v>0</v>
+      </c>
+      <c r="U93" s="6">
+        <v>2</v>
+      </c>
+      <c r="V93" s="6">
+        <v>2</v>
+      </c>
+      <c r="W93" s="6">
         <v>6</v>
       </c>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="6">
-        <v>0</v>
-      </c>
-      <c r="W93" s="6">
-        <v>0</v>
-      </c>
-      <c r="X93" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y93" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z93" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="Z93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC93" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -2599,55 +2751,63 @@
       <c r="E94" s="1">
         <v>2</v>
       </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
       <c r="H94" s="1">
         <v>0</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94" s="1">
         <v>2</v>
       </c>
-      <c r="L94" s="1">
-        <v>2</v>
-      </c>
-      <c r="N94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="6">
+        <v>2</v>
+      </c>
+      <c r="N94" s="6">
+        <v>1</v>
+      </c>
       <c r="O94" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P94" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="6">
-        <v>4</v>
-      </c>
-      <c r="R94" s="6">
         <v>0</v>
       </c>
       <c r="S94" s="6">
         <v>0</v>
       </c>
-      <c r="T94" s="5"/>
+      <c r="T94" s="6">
+        <v>0</v>
+      </c>
+      <c r="U94" s="6">
+        <v>1</v>
+      </c>
       <c r="V94" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W94" s="6">
-        <v>0</v>
-      </c>
-      <c r="X94" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y94" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z94" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -2663,239 +2823,286 @@
       <c r="E95" s="1">
         <v>0</v>
       </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
       <c r="H95" s="1">
         <v>0</v>
       </c>
       <c r="I95" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K95" s="1">
+        <v>8</v>
+      </c>
+      <c r="L95" s="4"/>
+      <c r="M95" s="6">
+        <v>0</v>
+      </c>
+      <c r="N95" s="6">
+        <v>3</v>
+      </c>
+      <c r="O95" s="6">
+        <v>2</v>
+      </c>
+      <c r="P95" s="6">
         <v>6</v>
       </c>
-      <c r="L95" s="1">
+      <c r="Q95" s="6">
+        <v>1</v>
+      </c>
+      <c r="S95" s="6">
+        <v>0</v>
+      </c>
+      <c r="T95" s="6">
+        <v>1</v>
+      </c>
+      <c r="U95" s="6">
+        <v>2</v>
+      </c>
+      <c r="V95" s="6">
+        <v>3</v>
+      </c>
+      <c r="W95" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC95" s="1">
         <v>8</v>
       </c>
-      <c r="N95" s="4"/>
-      <c r="O95" s="6">
-        <v>0</v>
-      </c>
-      <c r="P95" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q95" s="6">
-        <v>2</v>
-      </c>
-      <c r="R95" s="6">
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>2</v>
+      </c>
+      <c r="J96" s="1">
+        <v>2</v>
+      </c>
+      <c r="K96" s="1">
+        <v>3</v>
+      </c>
+      <c r="L96" s="4"/>
+      <c r="M96" s="6">
+        <v>0</v>
+      </c>
+      <c r="N96" s="6">
+        <v>3</v>
+      </c>
+      <c r="O96" s="6">
+        <v>0</v>
+      </c>
+      <c r="P96" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="6">
+        <v>4</v>
+      </c>
+      <c r="S96" s="6">
+        <v>0</v>
+      </c>
+      <c r="T96" s="6">
+        <v>0</v>
+      </c>
+      <c r="U96" s="6">
+        <v>2</v>
+      </c>
+      <c r="V96" s="6">
+        <v>3</v>
+      </c>
+      <c r="W96" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>7</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
+        <v>2</v>
+      </c>
+      <c r="K97" s="1">
+        <v>7</v>
+      </c>
+      <c r="L97" s="4"/>
+      <c r="M97" s="6">
+        <v>0</v>
+      </c>
+      <c r="N97" s="5">
+        <v>7</v>
+      </c>
+      <c r="O97" s="6">
+        <v>0</v>
+      </c>
+      <c r="P97" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="6">
+        <v>1</v>
+      </c>
+      <c r="S97" s="6">
+        <v>0</v>
+      </c>
+      <c r="T97" s="6">
+        <v>0</v>
+      </c>
+      <c r="U97" s="6">
+        <v>0</v>
+      </c>
+      <c r="V97" s="6">
+        <v>1</v>
+      </c>
+      <c r="W97" s="5"/>
+      <c r="Z97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>7</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>2</v>
+      </c>
+      <c r="K98" s="1">
+        <v>7</v>
+      </c>
+      <c r="L98" s="4"/>
+      <c r="M98" s="5">
         <v>6</v>
       </c>
-      <c r="S95" s="6">
-        <v>1</v>
-      </c>
-      <c r="T95" s="5"/>
-      <c r="V95" s="6">
-        <v>0</v>
-      </c>
-      <c r="W95" s="6">
-        <v>1</v>
-      </c>
-      <c r="X95" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y95" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z95" s="6">
+      <c r="N98" s="6">
+        <v>4</v>
+      </c>
+      <c r="O98" s="6">
+        <v>0</v>
+      </c>
+      <c r="P98" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
-        <v>2</v>
-      </c>
-      <c r="B96" s="1">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1">
-        <v>2</v>
-      </c>
-      <c r="E96" s="1">
-        <v>3</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0</v>
-      </c>
-      <c r="I96" s="1">
-        <v>1</v>
-      </c>
-      <c r="J96" s="1">
-        <v>2</v>
-      </c>
-      <c r="K96" s="1">
-        <v>2</v>
-      </c>
-      <c r="L96" s="1">
-        <v>3</v>
-      </c>
-      <c r="N96" s="4"/>
-      <c r="O96" s="6">
-        <v>0</v>
-      </c>
-      <c r="P96" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q96" s="6">
-        <v>0</v>
-      </c>
-      <c r="R96" s="6">
-        <v>2</v>
-      </c>
-      <c r="S96" s="6">
-        <v>4</v>
-      </c>
-      <c r="T96" s="5"/>
-      <c r="V96" s="6">
-        <v>0</v>
-      </c>
-      <c r="W96" s="6">
-        <v>0</v>
-      </c>
-      <c r="X96" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y96" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z96" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
-        <v>2</v>
-      </c>
-      <c r="B97" s="1">
-        <v>0</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1">
-        <v>7</v>
-      </c>
-      <c r="E97" s="1">
-        <v>1</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0</v>
-      </c>
-      <c r="J97" s="1">
-        <v>1</v>
-      </c>
-      <c r="K97" s="1">
-        <v>2</v>
-      </c>
-      <c r="L97" s="1">
-        <v>7</v>
-      </c>
-      <c r="N97" s="4"/>
-      <c r="O97" s="6">
-        <v>0</v>
-      </c>
-      <c r="P97" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q97" s="6">
-        <v>0</v>
-      </c>
-      <c r="R97" s="6">
-        <v>0</v>
-      </c>
-      <c r="S97" s="6">
-        <v>1</v>
-      </c>
-      <c r="T97" s="5"/>
-      <c r="V97" s="6">
-        <v>0</v>
-      </c>
-      <c r="W97" s="6">
-        <v>0</v>
-      </c>
-      <c r="X97" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z97" s="5"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
-        <v>0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0</v>
-      </c>
-      <c r="D98" s="1">
-        <v>7</v>
-      </c>
-      <c r="E98" s="1">
-        <v>2</v>
-      </c>
-      <c r="H98" s="1">
-        <v>0</v>
-      </c>
-      <c r="I98" s="1">
-        <v>0</v>
-      </c>
-      <c r="J98" s="1">
-        <v>0</v>
-      </c>
-      <c r="K98" s="1">
-        <v>2</v>
-      </c>
-      <c r="L98" s="1">
-        <v>7</v>
-      </c>
-      <c r="N98" s="4"/>
-      <c r="O98" s="5">
-        <v>4</v>
-      </c>
-      <c r="P98" s="5">
-        <v>4</v>
-      </c>
       <c r="Q98" s="6">
-        <v>0</v>
-      </c>
-      <c r="R98" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S98" s="6">
-        <v>1</v>
-      </c>
-      <c r="T98" s="5"/>
-      <c r="V98" s="6">
-        <v>0</v>
-      </c>
-      <c r="W98" s="6">
-        <v>1</v>
-      </c>
-      <c r="X98" s="5"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="T98" s="6">
+        <v>1</v>
+      </c>
+      <c r="U98" s="6">
+        <v>4</v>
+      </c>
+      <c r="V98" s="5">
+        <v>6</v>
+      </c>
+      <c r="W98" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB98" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>4</v>
       </c>
@@ -2911,55 +3118,69 @@
       <c r="E99" s="1">
         <v>1</v>
       </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
       <c r="H99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K99" s="1">
-        <v>3</v>
-      </c>
-      <c r="L99" s="1">
-        <v>4</v>
-      </c>
-      <c r="N99" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="L99" s="4"/>
+      <c r="M99" s="6">
+        <v>0</v>
+      </c>
+      <c r="N99" s="6">
+        <v>2</v>
+      </c>
       <c r="O99" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P99" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q99" s="6">
-        <v>2</v>
-      </c>
-      <c r="R99" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99" s="6">
-        <v>1</v>
-      </c>
-      <c r="T99" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="T99" s="6">
+        <v>0</v>
+      </c>
+      <c r="U99" s="6">
+        <v>1</v>
+      </c>
       <c r="V99" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W99" s="6">
-        <v>0</v>
-      </c>
-      <c r="X99" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y99" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z99" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="Z99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB99" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC99" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -2975,49 +3196,63 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
       <c r="H100" s="1">
         <v>0</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K100" s="1">
-        <v>3</v>
-      </c>
-      <c r="L100" s="1">
         <v>6</v>
       </c>
-      <c r="N100" s="4"/>
-      <c r="O100" s="5">
-        <v>2</v>
+      <c r="L100" s="4"/>
+      <c r="M100" s="5">
+        <v>4</v>
+      </c>
+      <c r="N100" s="6">
+        <v>0</v>
+      </c>
+      <c r="O100" s="6">
+        <v>3</v>
       </c>
       <c r="P100" s="6">
         <v>0</v>
       </c>
-      <c r="Q100" s="5">
-        <v>2</v>
-      </c>
-      <c r="R100" s="6">
-        <v>0</v>
-      </c>
-      <c r="S100" s="6">
-        <v>0</v>
-      </c>
-      <c r="T100" s="5"/>
+      <c r="Q100" s="6">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="Z100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB100" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC100" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -3033,6 +3268,9 @@
       <c r="E101" s="1">
         <v>1</v>
       </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
       <c r="H101" s="1">
         <v>0</v>
       </c>
@@ -3040,38 +3278,50 @@
         <v>0</v>
       </c>
       <c r="J101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" s="1">
-        <v>1</v>
-      </c>
-      <c r="L101" s="1">
-        <v>4</v>
-      </c>
-      <c r="N101" s="4"/>
-      <c r="O101" s="6">
-        <v>0</v>
-      </c>
-      <c r="P101" s="5">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="L101" s="4"/>
+      <c r="M101" s="6">
+        <v>0</v>
+      </c>
+      <c r="N101" s="6">
+        <v>2</v>
+      </c>
+      <c r="O101" s="5">
+        <v>3</v>
+      </c>
+      <c r="P101" s="6">
+        <v>0</v>
       </c>
       <c r="Q101" s="5">
-        <v>1</v>
-      </c>
-      <c r="R101" s="6">
-        <v>0</v>
-      </c>
-      <c r="S101" s="5">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>2</v>
+      </c>
+      <c r="V101" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z101" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -3087,68 +3337,218 @@
       <c r="E102" s="1">
         <v>6</v>
       </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
       <c r="H102" s="1">
         <v>0</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" s="1">
         <v>2</v>
       </c>
       <c r="K102" s="1">
-        <v>2</v>
-      </c>
-      <c r="L102" s="1">
         <v>6</v>
       </c>
-      <c r="N102" s="4"/>
-      <c r="O102" s="5">
+      <c r="L102" s="4"/>
+      <c r="M102" s="6">
+        <v>0</v>
+      </c>
+      <c r="N102" s="6">
+        <v>0</v>
+      </c>
+      <c r="O102" s="6">
         <v>0</v>
       </c>
       <c r="P102" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="5">
-        <v>0</v>
-      </c>
-      <c r="R102" s="5">
-        <v>0</v>
-      </c>
-      <c r="S102" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N103" s="4"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N104" s="4"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="N105" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q102" s="6">
+        <v>1</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z102" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB102" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>4</v>
+      </c>
+      <c r="K103" s="1">
+        <v>10</v>
+      </c>
+      <c r="L103" s="4"/>
+      <c r="M103" s="6">
+        <v>0</v>
+      </c>
+      <c r="N103" s="5">
+        <v>1</v>
+      </c>
+      <c r="O103" s="5">
+        <v>1</v>
+      </c>
+      <c r="P103" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="6">
+        <v>0</v>
+      </c>
+      <c r="S103" s="3">
+        <v>0</v>
+      </c>
+      <c r="T103" s="3">
+        <v>0</v>
+      </c>
+      <c r="U103" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB103" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1">
+        <v>2</v>
+      </c>
+      <c r="K104" s="1">
+        <v>3</v>
+      </c>
+      <c r="L104" s="4"/>
+      <c r="M104" s="5">
+        <v>0</v>
+      </c>
+      <c r="N104" s="5">
+        <v>0</v>
+      </c>
+      <c r="O104" s="5">
+        <v>0</v>
+      </c>
+      <c r="P104" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>0</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>6</v>
+      </c>
+      <c r="K105" s="1">
+        <v>6</v>
+      </c>
+      <c r="L105" s="4"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3159,10 +3559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U102"/>
+  <dimension ref="A76:U105"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3362,7 +3762,7 @@
       <c r="A93" s="1">
         <v>2</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>2</v>
       </c>
       <c r="C93" s="1">
@@ -3403,7 +3803,7 @@
       <c r="A94" s="1">
         <v>2</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>0</v>
       </c>
       <c r="C94" s="1">
@@ -3444,7 +3844,7 @@
       <c r="A95" s="1">
         <v>2</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <v>3</v>
       </c>
       <c r="C95" s="1">
@@ -3485,7 +3885,7 @@
       <c r="A96" s="1">
         <v>1</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>1</v>
       </c>
       <c r="C96" s="1">
@@ -3526,7 +3926,7 @@
       <c r="A97" s="1">
         <v>2</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>1</v>
       </c>
       <c r="C97" s="1">
@@ -3766,6 +4166,93 @@
       </c>
       <c r="U102" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>3</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2</v>
+      </c>
+      <c r="I103" s="1">
+        <v>2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0</v>
+      </c>
+      <c r="R103" s="1">
+        <v>0</v>
+      </c>
+      <c r="S103" s="1">
+        <v>0</v>
+      </c>
+      <c r="T103" s="1">
+        <v>2</v>
+      </c>
+      <c r="U103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0</v>
+      </c>
+      <c r="R104" s="1">
+        <v>4</v>
+      </c>
+      <c r="S104" s="1">
+        <v>6</v>
+      </c>
+      <c r="T104" s="1">
+        <v>6</v>
+      </c>
+      <c r="U104" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3776,10 +4263,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A90:I103"/>
+  <dimension ref="A90:K105"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="Q108" sqref="Q108"/>
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3878,7 +4365,7 @@
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="7">
         <v>2</v>
       </c>
@@ -3892,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="7">
         <v>3</v>
       </c>
@@ -3903,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="9">
         <v>1</v>
       </c>
@@ -3921,7 +4408,7 @@
       </c>
       <c r="G99" s="10"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="7">
         <v>2</v>
       </c>
@@ -3935,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="7">
         <v>3</v>
       </c>
@@ -3952,7 +4439,7 @@
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" s="7">
         <v>2</v>
       </c>
@@ -3966,10 +4453,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A103" s="7">
+        <v>3</v>
+      </c>
+      <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
+      <c r="E103" s="9">
+        <v>1</v>
+      </c>
       <c r="G103" s="10"/>
+      <c r="K103" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A104" s="7">
+        <v>2</v>
+      </c>
+      <c r="B104" s="9">
+        <v>1</v>
+      </c>
+      <c r="C104" s="9">
+        <v>1</v>
+      </c>
+      <c r="D104" s="9">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A105" s="9">
+        <v>1</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3979,13 +4502,478 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A91:AK105"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105:F105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="5.625" style="8" customWidth="1"/>
+    <col min="11" max="37" width="5.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A91" s="9">
+        <v>1</v>
+      </c>
+      <c r="B91" s="9">
+        <v>1</v>
+      </c>
+      <c r="E91" s="7">
+        <v>2</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1</v>
+      </c>
+      <c r="N91" s="1">
+        <v>1</v>
+      </c>
+      <c r="O91" s="1">
+        <v>2</v>
+      </c>
+      <c r="P91" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>5</v>
+      </c>
+      <c r="R91" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A92" s="9">
+        <v>1</v>
+      </c>
+      <c r="B92" s="9">
+        <v>1</v>
+      </c>
+      <c r="C92" s="9">
+        <v>1</v>
+      </c>
+      <c r="H92" s="9">
+        <v>1</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1</v>
+      </c>
+      <c r="N92" s="1">
+        <v>1</v>
+      </c>
+      <c r="O92" s="1">
+        <v>2</v>
+      </c>
+      <c r="P92" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>8</v>
+      </c>
+      <c r="R92" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>2</v>
+      </c>
+      <c r="C93" s="9">
+        <v>1</v>
+      </c>
+      <c r="D93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1</v>
+      </c>
+      <c r="N93" s="1">
+        <v>1</v>
+      </c>
+      <c r="O93" s="1">
+        <v>1</v>
+      </c>
+      <c r="P93" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>4</v>
+      </c>
+      <c r="R93" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A94" s="9">
+        <v>1</v>
+      </c>
+      <c r="C94" s="9">
+        <v>1</v>
+      </c>
+      <c r="D94" s="9">
+        <v>1</v>
+      </c>
+      <c r="E94" s="9">
+        <v>1</v>
+      </c>
+      <c r="F94" s="9">
+        <v>1</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1</v>
+      </c>
+      <c r="O94" s="1">
+        <v>3</v>
+      </c>
+      <c r="P94" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>5</v>
+      </c>
+      <c r="R94" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B95" s="9">
+        <v>1</v>
+      </c>
+      <c r="C95" s="9">
+        <v>1</v>
+      </c>
+      <c r="D95" s="9">
+        <v>1</v>
+      </c>
+      <c r="E95" s="7">
+        <v>2</v>
+      </c>
+      <c r="N95" s="1">
+        <v>2</v>
+      </c>
+      <c r="O95" s="1">
+        <v>3</v>
+      </c>
+      <c r="P95" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>5</v>
+      </c>
+      <c r="R95" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C96" s="9">
+        <v>1</v>
+      </c>
+      <c r="D96" s="9">
+        <v>1</v>
+      </c>
+      <c r="E96" s="9">
+        <v>1</v>
+      </c>
+      <c r="H96" s="9">
+        <v>1</v>
+      </c>
+      <c r="I96" s="9">
+        <v>1</v>
+      </c>
+      <c r="N96" s="1">
+        <v>3</v>
+      </c>
+      <c r="O96" s="1">
+        <v>4</v>
+      </c>
+      <c r="P96" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>8</v>
+      </c>
+      <c r="R96" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A97" s="9">
+        <v>1</v>
+      </c>
+      <c r="C97" s="9">
+        <v>1</v>
+      </c>
+      <c r="E97" s="7">
+        <v>2</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97" s="10"/>
+      <c r="N97" s="1">
+        <v>1</v>
+      </c>
+      <c r="O97" s="1">
+        <v>3</v>
+      </c>
+      <c r="P97" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>5</v>
+      </c>
+      <c r="R97" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A98" s="9">
+        <v>1</v>
+      </c>
+      <c r="C98" s="9">
+        <v>1</v>
+      </c>
+      <c r="E98" s="9">
+        <v>1</v>
+      </c>
+      <c r="G98" s="9">
+        <v>1</v>
+      </c>
+      <c r="J98" s="9">
+        <v>1</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
+        <v>1</v>
+      </c>
+      <c r="P98" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>5</v>
+      </c>
+      <c r="R98" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="9">
+        <v>1</v>
+      </c>
+      <c r="F99" s="9">
+        <v>1</v>
+      </c>
+      <c r="G99" s="9">
+        <v>1</v>
+      </c>
+      <c r="H99" s="9">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1">
+        <v>2</v>
+      </c>
+      <c r="O99" s="1">
+        <v>5</v>
+      </c>
+      <c r="P99" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>7</v>
+      </c>
+      <c r="R99" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A100" s="9">
+        <v>1</v>
+      </c>
+      <c r="B100" s="9">
+        <v>1</v>
+      </c>
+      <c r="C100" s="9">
+        <v>1</v>
+      </c>
+      <c r="D100" s="9">
+        <v>1</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1</v>
+      </c>
+      <c r="N100" s="1">
+        <v>1</v>
+      </c>
+      <c r="O100" s="1">
+        <v>2</v>
+      </c>
+      <c r="P100" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>4</v>
+      </c>
+      <c r="R100" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B101" s="9">
+        <v>1</v>
+      </c>
+      <c r="C101" s="9">
+        <v>1</v>
+      </c>
+      <c r="E101" s="9">
+        <v>1</v>
+      </c>
+      <c r="F101" s="9">
+        <v>1</v>
+      </c>
+      <c r="I101" s="9">
+        <v>1</v>
+      </c>
+      <c r="N101" s="1">
+        <v>2</v>
+      </c>
+      <c r="O101" s="1">
+        <v>3</v>
+      </c>
+      <c r="P101" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>6</v>
+      </c>
+      <c r="R101" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C102" s="9">
+        <v>1</v>
+      </c>
+      <c r="D102" s="9">
+        <v>1</v>
+      </c>
+      <c r="F102" s="9">
+        <v>1</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+      <c r="H102" s="9">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1">
+        <v>3</v>
+      </c>
+      <c r="O102" s="1">
+        <v>4</v>
+      </c>
+      <c r="P102" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>7</v>
+      </c>
+      <c r="R102" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B103" s="9">
+        <v>1</v>
+      </c>
+      <c r="E103" s="9">
+        <v>1</v>
+      </c>
+      <c r="F103" s="9">
+        <v>1</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1</v>
+      </c>
+      <c r="H103" s="9">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1">
+        <v>2</v>
+      </c>
+      <c r="O103" s="1">
+        <v>5</v>
+      </c>
+      <c r="P103" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>7</v>
+      </c>
+      <c r="R103" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A104" s="9">
+        <v>1</v>
+      </c>
+      <c r="B104" s="9">
+        <v>1</v>
+      </c>
+      <c r="D104" s="9">
+        <v>1</v>
+      </c>
+      <c r="H104" s="9">
+        <v>1</v>
+      </c>
+      <c r="I104" s="9">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1">
+        <v>2</v>
+      </c>
+      <c r="P104" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>8</v>
+      </c>
+      <c r="R104" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+      <c r="N105" s="1">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+      <c r="P105" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>6</v>
+      </c>
+      <c r="R105" s="1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
@@ -49,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +68,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -81,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,6 +117,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O1" activeCellId="4" sqref="A1:A1048576 F1:F1048576 I1:I1048576 J1:J1048576 O1:O1048576"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,7 +1144,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1180,7 +1189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>10</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="4">
         <v>7</v>
@@ -1220,8 +1229,11 @@
       <c r="N17" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>0</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K18" s="4">
         <v>3</v>
@@ -1258,10 +1270,13 @@
       <c r="N18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -1275,6 +1290,9 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="1">
         <v>3</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" s="4">
         <v>1</v>
@@ -1290,19 +1308,34 @@
       <c r="N19" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="1">
         <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -1311,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C21" s="1">
         <v>0</v>
       </c>
@@ -1321,6 +1354,9 @@
       <c r="F21" s="1">
         <v>2</v>
       </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
       <c r="H21" s="1">
         <v>2</v>
       </c>
@@ -1331,9 +1367,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C22" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
@@ -1348,10 +1384,13 @@
         <v>1</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
@@ -1361,8 +1400,11 @@
       <c r="M23" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="F24" s="1">
         <v>2</v>
       </c>
@@ -1372,8 +1414,11 @@
       <c r="M24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="F25" s="1">
         <v>4</v>
       </c>
@@ -1384,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="F26" s="1">
         <v>0</v>
       </c>
@@ -1395,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="F27" s="1">
         <v>0</v>
       </c>
@@ -1406,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="F28" s="1">
         <v>0</v>
       </c>
@@ -1417,20 +1462,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="F30" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1441,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A75:AD107"/>
+  <dimension ref="A75:AD108"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="W102" sqref="W102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2993,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O97" s="6">
         <v>0</v>
@@ -3063,7 +3119,7 @@
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N98" s="6">
         <v>4</v>
@@ -3072,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="P98" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q98" s="6">
         <v>1</v>
@@ -3086,12 +3142,8 @@
       <c r="U98" s="6">
         <v>4</v>
       </c>
-      <c r="V98" s="5">
-        <v>6</v>
-      </c>
-      <c r="W98" s="5">
-        <v>6</v>
-      </c>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
       <c r="Z98" s="1">
         <v>0</v>
       </c>
@@ -3149,6 +3201,7 @@
       <c r="Q99" s="6">
         <v>1</v>
       </c>
+      <c r="R99" s="5"/>
       <c r="S99" s="6">
         <v>0</v>
       </c>
@@ -3212,7 +3265,7 @@
         <v>6</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>4</v>
       </c>
       <c r="N100" s="6">
@@ -3227,6 +3280,7 @@
       <c r="Q100" s="6">
         <v>0</v>
       </c>
+      <c r="R100" s="5"/>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -3238,6 +3292,9 @@
       </c>
       <c r="V100" s="3">
         <v>3</v>
+      </c>
+      <c r="W100" s="3">
+        <v>4</v>
       </c>
       <c r="Z100" s="1">
         <v>0</v>
@@ -3290,15 +3347,16 @@
       <c r="N101" s="6">
         <v>2</v>
       </c>
-      <c r="O101" s="5">
-        <v>3</v>
+      <c r="O101" s="6">
+        <v>4</v>
       </c>
       <c r="P101" s="6">
         <v>0</v>
       </c>
-      <c r="Q101" s="5">
-        <v>3</v>
-      </c>
+      <c r="Q101" s="6">
+        <v>3</v>
+      </c>
+      <c r="R101" s="5"/>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -3308,8 +3366,11 @@
       <c r="U101" s="3">
         <v>2</v>
       </c>
-      <c r="V101" s="2">
-        <v>3</v>
+      <c r="V101" s="3">
+        <v>3</v>
+      </c>
+      <c r="W101" s="3">
+        <v>4</v>
       </c>
       <c r="Z101" s="1">
         <v>0</v>
@@ -3363,11 +3424,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q102" s="6">
         <v>1</v>
       </c>
+      <c r="R102" s="5"/>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -3425,26 +3487,33 @@
       <c r="M103" s="6">
         <v>0</v>
       </c>
-      <c r="N103" s="5">
-        <v>1</v>
-      </c>
-      <c r="O103" s="5">
-        <v>1</v>
-      </c>
-      <c r="P103" s="5">
+      <c r="N103" s="6">
+        <v>1</v>
+      </c>
+      <c r="O103" s="11">
+        <v>3</v>
+      </c>
+      <c r="P103" s="6">
         <v>1</v>
       </c>
       <c r="Q103" s="6">
         <v>0</v>
       </c>
+      <c r="R103" s="5"/>
       <c r="S103" s="3">
         <v>0</v>
       </c>
       <c r="T103" s="3">
         <v>0</v>
       </c>
-      <c r="U103" s="2">
-        <v>1</v>
+      <c r="U103" s="3">
+        <v>1</v>
+      </c>
+      <c r="V103" s="3">
+        <v>1</v>
+      </c>
+      <c r="W103" s="3">
+        <v>3</v>
       </c>
       <c r="Z103" s="1">
         <v>0</v>
@@ -3489,22 +3558,29 @@
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="5">
-        <v>0</v>
-      </c>
-      <c r="N104" s="5">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N104" s="6">
+        <v>1</v>
       </c>
       <c r="O104" s="5">
-        <v>0</v>
-      </c>
-      <c r="P104" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="5">
-        <v>0</v>
-      </c>
-      <c r="S104" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="P104" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="6">
+        <v>1</v>
+      </c>
+      <c r="R104" s="5"/>
+      <c r="S104" s="3">
+        <v>0</v>
+      </c>
+      <c r="T104" s="3">
+        <v>1</v>
+      </c>
+      <c r="U104" s="3">
+        <v>1</v>
       </c>
       <c r="Z104" s="1">
         <v>0</v>
@@ -3520,35 +3596,202 @@
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>4</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3</v>
+      </c>
       <c r="G105" s="1">
         <v>0</v>
       </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
       <c r="J105" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K105" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
+      <c r="M105" s="5">
+        <v>2</v>
+      </c>
+      <c r="N105" s="5">
+        <v>2</v>
+      </c>
+      <c r="O105" s="6">
+        <v>0</v>
+      </c>
+      <c r="P105" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q105" s="6">
+        <v>0</v>
+      </c>
+      <c r="R105" s="5"/>
+      <c r="S105" s="3">
+        <v>0</v>
+      </c>
+      <c r="T105" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB105" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC105" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
+      <c r="A106" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1">
+        <v>4</v>
+      </c>
+      <c r="M106" s="11">
+        <v>0</v>
+      </c>
+      <c r="N106" s="11">
+        <v>0</v>
+      </c>
+      <c r="O106" s="5">
+        <v>1</v>
+      </c>
+      <c r="P106" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="11">
+        <v>0</v>
+      </c>
+      <c r="R106" s="5"/>
+      <c r="S106" s="3">
+        <v>0</v>
+      </c>
+      <c r="T106" s="3">
+        <v>0</v>
+      </c>
+      <c r="U106" s="3">
+        <v>0</v>
+      </c>
+      <c r="V106" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB106" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
+      <c r="A107" s="1">
+        <v>3</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>3</v>
+      </c>
+      <c r="M107" s="5">
+        <v>0</v>
+      </c>
+      <c r="N107" s="5">
+        <v>0</v>
+      </c>
+      <c r="O107" s="5">
+        <v>0</v>
+      </c>
+      <c r="P107" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>0</v>
+      </c>
+      <c r="R107" s="5"/>
+      <c r="Z107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3559,10 +3802,275 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U105"/>
+  <dimension ref="A90:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="32" width="5.625" style="8" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="7">
+        <v>2</v>
+      </c>
+      <c r="C90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="9">
+        <v>1</v>
+      </c>
+      <c r="B91" s="9">
+        <v>1</v>
+      </c>
+      <c r="C91" s="9">
+        <v>1</v>
+      </c>
+      <c r="D91" s="9">
+        <v>1</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="9">
+        <v>1</v>
+      </c>
+      <c r="B92" s="7">
+        <v>3</v>
+      </c>
+      <c r="E92" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>2</v>
+      </c>
+      <c r="B93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="7">
+        <v>2</v>
+      </c>
+      <c r="B94" s="9">
+        <v>1</v>
+      </c>
+      <c r="C94" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
+        <v>2</v>
+      </c>
+      <c r="D95" s="9">
+        <v>1</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
+      <c r="I95" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="9">
+        <v>1</v>
+      </c>
+      <c r="B96" s="9">
+        <v>1</v>
+      </c>
+      <c r="C96" s="7">
+        <v>2</v>
+      </c>
+      <c r="D96" s="9">
+        <v>1</v>
+      </c>
+      <c r="F96" s="10"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>2</v>
+      </c>
+      <c r="B97" s="9">
+        <v>1</v>
+      </c>
+      <c r="C97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="7">
+        <v>3</v>
+      </c>
+      <c r="C98" s="9">
+        <v>1</v>
+      </c>
+      <c r="H98" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A99" s="9">
+        <v>1</v>
+      </c>
+      <c r="B99" s="9">
+        <v>1</v>
+      </c>
+      <c r="C99" s="9">
+        <v>1</v>
+      </c>
+      <c r="D99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="9">
+        <v>1</v>
+      </c>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A100" s="7">
+        <v>2</v>
+      </c>
+      <c r="B100" s="9">
+        <v>1</v>
+      </c>
+      <c r="D100" s="9">
+        <v>1</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
+        <v>3</v>
+      </c>
+      <c r="B101" s="9">
+        <v>1</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="9">
+        <v>1</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A102" s="7">
+        <v>2</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="7">
+        <v>2</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A103" s="7">
+        <v>3</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="9">
+        <v>1</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="K103" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A104" s="7">
+        <v>2</v>
+      </c>
+      <c r="B104" s="9">
+        <v>1</v>
+      </c>
+      <c r="C104" s="9">
+        <v>1</v>
+      </c>
+      <c r="D104" s="9">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A105" s="9">
+        <v>1</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="9">
+        <v>1</v>
+      </c>
+      <c r="E105" s="9">
+        <v>1</v>
+      </c>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A106" s="7">
+        <v>2</v>
+      </c>
+      <c r="B106" s="7">
+        <v>2</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A107" s="7">
+        <v>4</v>
+      </c>
+      <c r="D107" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A76:U107"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4254,243 +4762,122 @@
       <c r="A105" s="1">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A90:K105"/>
-  <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="32" width="5.625" style="8" customWidth="1"/>
-    <col min="33" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="7">
-        <v>2</v>
-      </c>
-      <c r="C90" s="9">
-        <v>1</v>
-      </c>
-      <c r="H90" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="9">
-        <v>1</v>
-      </c>
-      <c r="B91" s="9">
-        <v>1</v>
-      </c>
-      <c r="C91" s="9">
-        <v>1</v>
-      </c>
-      <c r="D91" s="9">
-        <v>1</v>
-      </c>
-      <c r="E91" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="9">
-        <v>1</v>
-      </c>
-      <c r="B92" s="7">
-        <v>3</v>
-      </c>
-      <c r="E92" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="7">
-        <v>2</v>
-      </c>
-      <c r="B93" s="9">
-        <v>1</v>
-      </c>
-      <c r="H93" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="7">
-        <v>2</v>
-      </c>
-      <c r="B94" s="9">
-        <v>1</v>
-      </c>
-      <c r="C94" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="7">
-        <v>2</v>
-      </c>
-      <c r="D95" s="9">
-        <v>1</v>
-      </c>
-      <c r="G95" s="9">
-        <v>1</v>
-      </c>
-      <c r="I95" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="9">
-        <v>1</v>
-      </c>
-      <c r="B96" s="9">
-        <v>1</v>
-      </c>
-      <c r="C96" s="7">
-        <v>2</v>
-      </c>
-      <c r="D96" s="9">
-        <v>1</v>
-      </c>
-      <c r="F96" s="10"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A97" s="7">
-        <v>2</v>
-      </c>
-      <c r="B97" s="9">
-        <v>1</v>
-      </c>
-      <c r="C97" s="9">
-        <v>1</v>
-      </c>
-      <c r="H97" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="7">
-        <v>3</v>
-      </c>
-      <c r="C98" s="9">
-        <v>1</v>
-      </c>
-      <c r="H98" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="9">
-        <v>1</v>
-      </c>
-      <c r="B99" s="9">
-        <v>1</v>
-      </c>
-      <c r="C99" s="9">
-        <v>1</v>
-      </c>
-      <c r="D99" s="9">
-        <v>1</v>
-      </c>
-      <c r="E99" s="9">
-        <v>1</v>
-      </c>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="7">
-        <v>2</v>
-      </c>
-      <c r="B100" s="9">
-        <v>1</v>
-      </c>
-      <c r="D100" s="9">
-        <v>1</v>
-      </c>
-      <c r="G100" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A101" s="7">
-        <v>3</v>
-      </c>
-      <c r="B101" s="9">
-        <v>1</v>
-      </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="9">
-        <v>1</v>
-      </c>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="7">
-        <v>2</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="7">
-        <v>2</v>
-      </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="G102" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="7">
-        <v>3</v>
-      </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="9">
-        <v>1</v>
-      </c>
-      <c r="G103" s="10"/>
-      <c r="K103" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="7">
-        <v>2</v>
-      </c>
-      <c r="B104" s="9">
-        <v>1</v>
-      </c>
-      <c r="C104" s="9">
-        <v>1</v>
-      </c>
-      <c r="D104" s="9">
-        <v>1</v>
-      </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A105" s="9">
-        <v>1</v>
-      </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="G105" s="9">
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>2</v>
+      </c>
+      <c r="L105" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0</v>
+      </c>
+      <c r="R105" s="1">
+        <v>1</v>
+      </c>
+      <c r="S105" s="1">
+        <v>3</v>
+      </c>
+      <c r="T105" s="1">
+        <v>3</v>
+      </c>
+      <c r="U105" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1">
+        <v>2</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0</v>
+      </c>
+      <c r="R106" s="1">
+        <v>0</v>
+      </c>
+      <c r="S106" s="1">
+        <v>1</v>
+      </c>
+      <c r="T106" s="1">
+        <v>1</v>
+      </c>
+      <c r="U106" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>0</v>
+      </c>
+      <c r="R107" s="1">
+        <v>0</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1</v>
+      </c>
+      <c r="U107" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4502,10 +4889,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A91:AK105"/>
+  <dimension ref="A91:AK108"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105:F105"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4514,7 +4901,7 @@
     <col min="11" max="37" width="5.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
         <v>1</v>
       </c>
@@ -4543,7 +4930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A92" s="9">
         <v>1</v>
       </c>
@@ -4574,8 +4961,17 @@
       <c r="R92" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V92" s="1">
+        <v>2</v>
+      </c>
+      <c r="W92" s="1">
+        <v>1</v>
+      </c>
+      <c r="X92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A93" s="7">
         <v>2</v>
       </c>
@@ -4603,8 +4999,17 @@
       <c r="R93" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V93" s="1">
+        <v>3</v>
+      </c>
+      <c r="W93" s="1">
+        <v>1</v>
+      </c>
+      <c r="X93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A94" s="9">
         <v>1</v>
       </c>
@@ -4635,8 +5040,17 @@
       <c r="R94" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V94" s="1">
+        <v>3</v>
+      </c>
+      <c r="W94" s="1">
+        <v>1</v>
+      </c>
+      <c r="X94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B95" s="9">
         <v>1</v>
       </c>
@@ -4664,8 +5078,17 @@
       <c r="R95" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V95" s="1">
+        <v>3</v>
+      </c>
+      <c r="W95" s="1">
+        <v>1</v>
+      </c>
+      <c r="X95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.15">
       <c r="C96" s="9">
         <v>1</v>
       </c>
@@ -4696,8 +5119,17 @@
       <c r="R96" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V96" s="1">
+        <v>3</v>
+      </c>
+      <c r="W96" s="1">
+        <v>0</v>
+      </c>
+      <c r="X96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A97" s="9">
         <v>1</v>
       </c>
@@ -4726,8 +5158,17 @@
       <c r="R97" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V97" s="1">
+        <v>2</v>
+      </c>
+      <c r="W97" s="1">
+        <v>1</v>
+      </c>
+      <c r="X97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A98" s="9">
         <v>1</v>
       </c>
@@ -4758,8 +5199,17 @@
       <c r="R98" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V98" s="1">
+        <v>4</v>
+      </c>
+      <c r="W98" s="1">
+        <v>0</v>
+      </c>
+      <c r="X98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B99" s="9">
         <v>1</v>
       </c>
@@ -4790,8 +5240,17 @@
       <c r="R99" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V99" s="1">
+        <v>2</v>
+      </c>
+      <c r="W99" s="1">
+        <v>3</v>
+      </c>
+      <c r="X99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A100" s="9">
         <v>1</v>
       </c>
@@ -4822,8 +5281,17 @@
       <c r="R100" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V100" s="1">
+        <v>2</v>
+      </c>
+      <c r="W100" s="1">
+        <v>3</v>
+      </c>
+      <c r="X100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B101" s="9">
         <v>1</v>
       </c>
@@ -4854,8 +5322,17 @@
       <c r="R101" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V101" s="1">
+        <v>3</v>
+      </c>
+      <c r="W101" s="1">
+        <v>1</v>
+      </c>
+      <c r="X101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.15">
       <c r="C102" s="9">
         <v>1</v>
       </c>
@@ -4886,8 +5363,17 @@
       <c r="R102" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V102" s="1">
+        <v>2</v>
+      </c>
+      <c r="W102" s="1">
+        <v>3</v>
+      </c>
+      <c r="X102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B103" s="9">
         <v>1</v>
       </c>
@@ -4918,8 +5404,17 @@
       <c r="R103" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V103" s="1">
+        <v>3</v>
+      </c>
+      <c r="W103" s="1">
+        <v>2</v>
+      </c>
+      <c r="X103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A104" s="9">
         <v>1</v>
       </c>
@@ -4950,26 +5445,143 @@
       <c r="R104" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="V104" s="1">
+        <v>2</v>
+      </c>
+      <c r="W104" s="1">
+        <v>3</v>
+      </c>
+      <c r="X104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A105" s="9">
+        <v>1</v>
+      </c>
+      <c r="D105" s="9">
+        <v>1</v>
+      </c>
+      <c r="E105" s="7">
+        <v>2</v>
+      </c>
       <c r="G105" s="9">
         <v>1</v>
       </c>
       <c r="N105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P105" s="1">
         <v>5</v>
       </c>
       <c r="Q105" s="1">
+        <v>5</v>
+      </c>
+      <c r="R105" s="1">
+        <v>7</v>
+      </c>
+      <c r="V105" s="1">
+        <v>2</v>
+      </c>
+      <c r="W105" s="1">
+        <v>2</v>
+      </c>
+      <c r="X105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A106" s="10"/>
+      <c r="B106" s="9">
+        <v>1</v>
+      </c>
+      <c r="D106" s="9">
+        <v>1</v>
+      </c>
+      <c r="E106" s="9">
+        <v>1</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="9">
+        <v>1</v>
+      </c>
+      <c r="H106" s="9">
+        <v>1</v>
+      </c>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="N106" s="1">
+        <v>2</v>
+      </c>
+      <c r="O106" s="1">
+        <v>4</v>
+      </c>
+      <c r="P106" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>7</v>
+      </c>
+      <c r="R106" s="1">
+        <v>8</v>
+      </c>
+      <c r="V106" s="1">
+        <v>3</v>
+      </c>
+      <c r="W106" s="1">
+        <v>2</v>
+      </c>
+      <c r="X106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B107" s="10"/>
+      <c r="D107" s="9">
+        <v>1</v>
+      </c>
+      <c r="E107" s="9">
+        <v>1</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1</v>
+      </c>
+      <c r="G107" s="9">
+        <v>1</v>
+      </c>
+      <c r="H107" s="9">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1">
+        <v>4</v>
+      </c>
+      <c r="O107" s="1">
+        <v>5</v>
+      </c>
+      <c r="P107" s="1">
         <v>6</v>
       </c>
-      <c r="R105" s="1">
-        <v>9</v>
-      </c>
+      <c r="Q107" s="1">
+        <v>7</v>
+      </c>
+      <c r="R107" s="1">
+        <v>8</v>
+      </c>
+      <c r="V107" s="1">
+        <v>4</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1</v>
+      </c>
+      <c r="X107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="E108" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,12 +68,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -87,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,9 +111,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,7 +1180,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
       <c r="B17" s="1">
         <v>10</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="4">
         <v>7</v>
@@ -1233,7 +1227,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
@@ -1256,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K18" s="4">
         <v>3</v>
@@ -1274,9 +1271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -1312,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C20" s="1">
         <v>2</v>
       </c>
@@ -1335,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -1343,23 +1340,35 @@
       <c r="N20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
       </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
@@ -1367,9 +1376,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C22" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1">
         <v>4</v>
@@ -1387,9 +1396,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
@@ -1404,7 +1416,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F25" s="1">
         <v>4</v>
       </c>
@@ -1428,8 +1443,11 @@
       <c r="M25" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F26" s="1">
         <v>0</v>
       </c>
@@ -1439,8 +1457,11 @@
       <c r="M26" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F27" s="1">
         <v>0</v>
       </c>
@@ -1451,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F28" s="1">
         <v>0</v>
       </c>
@@ -1462,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F29" s="1">
         <v>0</v>
       </c>
@@ -1470,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="M29" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F30" s="1">
         <v>3</v>
       </c>
@@ -1481,12 +1502,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1497,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A75:AD108"/>
+  <dimension ref="A75:AD114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="M104" sqref="M104"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="X116" sqref="X116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3048,8 +3069,8 @@
       <c r="M97" s="6">
         <v>0</v>
       </c>
-      <c r="N97" s="5">
-        <v>10</v>
+      <c r="N97" s="6">
+        <v>11</v>
       </c>
       <c r="O97" s="6">
         <v>0</v>
@@ -3072,7 +3093,9 @@
       <c r="V97" s="6">
         <v>1</v>
       </c>
-      <c r="W97" s="5"/>
+      <c r="W97" s="6">
+        <v>11</v>
+      </c>
       <c r="Z97" s="1">
         <v>0</v>
       </c>
@@ -3118,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>9</v>
       </c>
       <c r="N98" s="6">
@@ -3128,21 +3151,23 @@
         <v>0</v>
       </c>
       <c r="P98" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>1</v>
+      </c>
+      <c r="S98" s="6">
+        <v>0</v>
+      </c>
+      <c r="T98" s="6">
+        <v>1</v>
+      </c>
+      <c r="U98" s="6">
+        <v>4</v>
+      </c>
+      <c r="V98" s="6">
         <v>9</v>
       </c>
-      <c r="Q98" s="6">
-        <v>1</v>
-      </c>
-      <c r="S98" s="6">
-        <v>0</v>
-      </c>
-      <c r="T98" s="6">
-        <v>1</v>
-      </c>
-      <c r="U98" s="6">
-        <v>4</v>
-      </c>
-      <c r="V98" s="5"/>
       <c r="W98" s="5"/>
       <c r="Z98" s="1">
         <v>0</v>
@@ -3424,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="P102" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q102" s="6">
         <v>1</v>
@@ -3490,7 +3515,7 @@
       <c r="N103" s="6">
         <v>1</v>
       </c>
-      <c r="O103" s="11">
+      <c r="O103" s="6">
         <v>3</v>
       </c>
       <c r="P103" s="6">
@@ -3558,13 +3583,13 @@
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N104" s="6">
         <v>1</v>
       </c>
       <c r="O104" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P104" s="6">
         <v>0</v>
@@ -3627,16 +3652,16 @@
         <v>4</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="5">
-        <v>2</v>
-      </c>
-      <c r="N105" s="5">
+      <c r="M105" s="6">
+        <v>3</v>
+      </c>
+      <c r="N105" s="6">
         <v>2</v>
       </c>
       <c r="O105" s="6">
         <v>0</v>
       </c>
-      <c r="P105" s="5">
+      <c r="P105" s="6">
         <v>2</v>
       </c>
       <c r="Q105" s="6">
@@ -3649,6 +3674,15 @@
       <c r="T105" s="3">
         <v>0</v>
       </c>
+      <c r="U105" s="3">
+        <v>2</v>
+      </c>
+      <c r="V105" s="3">
+        <v>2</v>
+      </c>
+      <c r="W105" s="3">
+        <v>3</v>
+      </c>
       <c r="Z105" s="1">
         <v>0</v>
       </c>
@@ -3693,19 +3727,20 @@
       <c r="K106" s="1">
         <v>4</v>
       </c>
-      <c r="M106" s="11">
-        <v>0</v>
-      </c>
-      <c r="N106" s="11">
-        <v>0</v>
-      </c>
-      <c r="O106" s="5">
-        <v>1</v>
-      </c>
-      <c r="P106" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="11">
+      <c r="L106" s="4"/>
+      <c r="M106" s="6">
+        <v>0</v>
+      </c>
+      <c r="N106" s="6">
+        <v>0</v>
+      </c>
+      <c r="O106" s="6">
+        <v>2</v>
+      </c>
+      <c r="P106" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="6">
         <v>0</v>
       </c>
       <c r="R106" s="5"/>
@@ -3721,6 +3756,9 @@
       <c r="V106" s="3">
         <v>0</v>
       </c>
+      <c r="W106" s="3">
+        <v>2</v>
+      </c>
       <c r="Z106" s="1">
         <v>0</v>
       </c>
@@ -3762,22 +3800,29 @@
       <c r="K107" s="1">
         <v>3</v>
       </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N107" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O107" s="5">
-        <v>0</v>
-      </c>
-      <c r="P107" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="5">
+        <v>2</v>
+      </c>
+      <c r="P107" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="6">
         <v>0</v>
       </c>
       <c r="R107" s="5"/>
+      <c r="S107" s="3">
+        <v>0</v>
+      </c>
+      <c r="T107" s="3">
+        <v>0</v>
+      </c>
       <c r="Z107" s="1">
         <v>0</v>
       </c>
@@ -3786,12 +3831,165 @@
       </c>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
+      <c r="A108" s="1">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>2</v>
+      </c>
+      <c r="J108" s="1">
+        <v>2</v>
+      </c>
+      <c r="K108" s="1">
+        <v>9</v>
+      </c>
+      <c r="L108" s="4"/>
+      <c r="M108" s="6">
+        <v>0</v>
+      </c>
+      <c r="N108" s="5">
+        <v>1</v>
+      </c>
+      <c r="O108" s="5">
+        <v>1</v>
+      </c>
+      <c r="P108" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>1</v>
+      </c>
       <c r="R108" s="5"/>
+      <c r="S108" s="3">
+        <v>0</v>
+      </c>
+      <c r="T108" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB108" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1">
+        <v>11</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>2</v>
+      </c>
+      <c r="J109" s="1">
+        <v>3</v>
+      </c>
+      <c r="K109" s="1">
+        <v>11</v>
+      </c>
+      <c r="L109" s="4"/>
+      <c r="M109" s="5">
+        <v>0</v>
+      </c>
+      <c r="N109" s="5">
+        <v>0</v>
+      </c>
+      <c r="O109" s="5">
+        <v>0</v>
+      </c>
+      <c r="P109" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB109" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC109" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L110" s="4"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L111" s="4"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+    </row>
+    <row r="113" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+    </row>
+    <row r="114" spans="13:17" x14ac:dyDescent="0.15">
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3802,10 +4000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A90:K107"/>
+  <dimension ref="A90:L109"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+      <selection activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3904,7 +4102,7 @@
       </c>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="7">
         <v>2</v>
       </c>
@@ -3918,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="7">
         <v>3</v>
       </c>
@@ -3929,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="9">
         <v>1</v>
       </c>
@@ -3947,7 +4145,7 @@
       </c>
       <c r="G99" s="10"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="7">
         <v>2</v>
       </c>
@@ -3961,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" s="7">
         <v>3</v>
       </c>
@@ -3978,7 +4176,7 @@
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" s="7">
         <v>2</v>
       </c>
@@ -3992,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" s="7">
         <v>3</v>
       </c>
@@ -4007,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" s="7">
         <v>2</v>
       </c>
@@ -4023,7 +4221,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" s="9">
         <v>1</v>
       </c>
@@ -4039,7 +4237,7 @@
       </c>
       <c r="G105" s="10"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="7">
         <v>2</v>
       </c>
@@ -4051,11 +4249,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" s="7">
         <v>4</v>
       </c>
       <c r="D107" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A108" s="7">
+        <v>2</v>
+      </c>
+      <c r="C108" s="7">
+        <v>2</v>
+      </c>
+      <c r="J108" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A109" s="7">
+        <v>2</v>
+      </c>
+      <c r="C109" s="9">
+        <v>1</v>
+      </c>
+      <c r="D109" s="9">
+        <v>1</v>
+      </c>
+      <c r="L109" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4067,10 +4290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U107"/>
+  <dimension ref="A76:U109"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+      <selection activeCell="L114" sqref="L114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4881,6 +5104,88 @@
         <v>1</v>
       </c>
     </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>2</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>2</v>
+      </c>
+      <c r="L108" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>0</v>
+      </c>
+      <c r="R108" s="1">
+        <v>0</v>
+      </c>
+      <c r="S108" s="1">
+        <v>0</v>
+      </c>
+      <c r="T108" s="1">
+        <v>0</v>
+      </c>
+      <c r="U108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1">
+        <v>2</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>0</v>
+      </c>
+      <c r="R109" s="1">
+        <v>0</v>
+      </c>
+      <c r="S109" s="1">
+        <v>4</v>
+      </c>
+      <c r="T109" s="1">
+        <v>4</v>
+      </c>
+      <c r="U109" s="1">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4889,10 +5194,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A91:AK108"/>
+  <dimension ref="A91:AK109"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K117" sqref="K117"/>
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5581,7 +5886,78 @@
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E108" s="10"/>
+      <c r="A108" s="7">
+        <v>2</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1</v>
+      </c>
+      <c r="E108" s="7">
+        <v>2</v>
+      </c>
+      <c r="N108" s="1">
+        <v>1</v>
+      </c>
+      <c r="O108" s="1">
+        <v>1</v>
+      </c>
+      <c r="P108" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>5</v>
+      </c>
+      <c r="R108" s="1">
+        <v>5</v>
+      </c>
+      <c r="V108" s="1">
+        <v>2</v>
+      </c>
+      <c r="W108" s="1">
+        <v>0</v>
+      </c>
+      <c r="X108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A109" s="9">
+        <v>1</v>
+      </c>
+      <c r="B109" s="9">
+        <v>1</v>
+      </c>
+      <c r="C109" s="9">
+        <v>1</v>
+      </c>
+      <c r="D109" s="7">
+        <v>2</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="N109" s="1">
+        <v>1</v>
+      </c>
+      <c r="O109" s="1">
+        <v>2</v>
+      </c>
+      <c r="P109" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>4</v>
+      </c>
+      <c r="R109" s="1">
+        <v>4</v>
+      </c>
+      <c r="V109" s="1">
+        <v>2</v>
+      </c>
+      <c r="W109" s="1">
+        <v>2</v>
+      </c>
+      <c r="X109" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1252,6 +1252,9 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
       <c r="J18" s="4">
         <v>11</v>
       </c>
@@ -1272,8 +1275,11 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
       <c r="B19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -1292,6 +1298,9 @@
       </c>
       <c r="H19" s="1">
         <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1310,6 +1319,9 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>6</v>
       </c>
       <c r="O20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
@@ -1352,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -1364,10 +1376,10 @@
         <v>2</v>
       </c>
       <c r="K21" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -1386,8 +1398,14 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="1">
         <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
       </c>
       <c r="M22" s="4">
         <v>1</v>
@@ -1398,13 +1416,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1434,6 +1455,9 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1">
         <v>4</v>
       </c>
@@ -1448,6 +1472,9 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
@@ -1458,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
@@ -1491,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
@@ -1501,13 +1528,16 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1518,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A75:AD114"/>
+  <dimension ref="A75:AD115"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="X116" sqref="X116"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="W118" sqref="W118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3150,7 +3180,7 @@
       <c r="O98" s="6">
         <v>0</v>
       </c>
-      <c r="P98" s="5">
+      <c r="P98" s="6">
         <v>11</v>
       </c>
       <c r="Q98" s="6">
@@ -3168,7 +3198,9 @@
       <c r="V98" s="6">
         <v>9</v>
       </c>
-      <c r="W98" s="5"/>
+      <c r="W98" s="6">
+        <v>11</v>
+      </c>
       <c r="Z98" s="1">
         <v>0</v>
       </c>
@@ -3448,8 +3480,8 @@
       <c r="O102" s="6">
         <v>0</v>
       </c>
-      <c r="P102" s="5">
-        <v>7</v>
+      <c r="P102" s="6">
+        <v>8</v>
       </c>
       <c r="Q102" s="6">
         <v>1</v>
@@ -3466,6 +3498,9 @@
       </c>
       <c r="V102" s="3">
         <v>1</v>
+      </c>
+      <c r="W102" s="3">
+        <v>8</v>
       </c>
       <c r="Z102" s="1">
         <v>0</v>
@@ -3582,13 +3617,13 @@
         <v>3</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="5">
-        <v>5</v>
+      <c r="M104" s="6">
+        <v>6</v>
       </c>
       <c r="N104" s="6">
         <v>1</v>
       </c>
-      <c r="O104" s="5">
+      <c r="O104" s="6">
         <v>5</v>
       </c>
       <c r="P104" s="6">
@@ -3607,6 +3642,12 @@
       <c r="U104" s="3">
         <v>1</v>
       </c>
+      <c r="V104" s="3">
+        <v>5</v>
+      </c>
+      <c r="W104" s="3">
+        <v>6</v>
+      </c>
       <c r="Z104" s="1">
         <v>0</v>
       </c>
@@ -3802,13 +3843,13 @@
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="5">
-        <v>2</v>
-      </c>
-      <c r="N107" s="5">
+        <v>3</v>
+      </c>
+      <c r="N107" s="6">
         <v>2</v>
       </c>
       <c r="O107" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P107" s="6">
         <v>0</v>
@@ -3822,6 +3863,9 @@
       </c>
       <c r="T107" s="3">
         <v>0</v>
+      </c>
+      <c r="U107" s="3">
+        <v>2</v>
       </c>
       <c r="Z107" s="1">
         <v>0</v>
@@ -3866,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="N108" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O108" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P108" s="6">
         <v>0</v>
       </c>
       <c r="Q108" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R108" s="5"/>
       <c r="S108" s="3">
@@ -3926,20 +3970,29 @@
         <v>11</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="5">
+      <c r="M109" s="6">
         <v>0</v>
       </c>
       <c r="N109" s="5">
-        <v>0</v>
-      </c>
-      <c r="O109" s="5">
-        <v>0</v>
-      </c>
-      <c r="P109" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O109" s="6">
+        <v>0</v>
+      </c>
+      <c r="P109" s="6">
+        <v>1</v>
       </c>
       <c r="Q109" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S109" s="3">
+        <v>0</v>
+      </c>
+      <c r="T109" s="3">
+        <v>0</v>
+      </c>
+      <c r="U109" s="3">
+        <v>1</v>
       </c>
       <c r="Z109" s="1">
         <v>0</v>
@@ -3955,41 +4008,162 @@
       </c>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1">
+        <v>11</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>2</v>
+      </c>
+      <c r="J110" s="1">
+        <v>5</v>
+      </c>
+      <c r="K110" s="1">
+        <v>11</v>
+      </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
+      <c r="M110" s="5">
+        <v>0</v>
+      </c>
+      <c r="N110" s="6">
+        <v>0</v>
+      </c>
+      <c r="O110" s="6">
+        <v>0</v>
+      </c>
+      <c r="P110" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>0</v>
+      </c>
+      <c r="S110" s="3">
+        <v>0</v>
+      </c>
+      <c r="T110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB110" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC110" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>6</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>8</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1">
+        <v>6</v>
+      </c>
+      <c r="K111" s="1">
+        <v>8</v>
+      </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
+      <c r="M111" s="5">
+        <v>0</v>
+      </c>
+      <c r="N111" s="5">
+        <v>0</v>
+      </c>
+      <c r="O111" s="5">
+        <v>0</v>
+      </c>
+      <c r="P111" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB111" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC111" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L112" s="4"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
     </row>
-    <row r="113" spans="13:17" x14ac:dyDescent="0.15">
+    <row r="113" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="L113" s="4"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
     </row>
-    <row r="114" spans="13:17" x14ac:dyDescent="0.15">
+    <row r="114" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="L114" s="4"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
+    </row>
+    <row r="115" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="L115" s="4"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4000,10 +4174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A90:L109"/>
+  <dimension ref="A90:L111"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L109" sqref="L109"/>
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4282,6 +4456,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A110" s="7">
+        <v>2</v>
+      </c>
+      <c r="C110" s="9">
+        <v>1</v>
+      </c>
+      <c r="F110" s="9">
+        <v>1</v>
+      </c>
+      <c r="L110" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A111" s="7">
+        <v>2</v>
+      </c>
+      <c r="B111" s="9">
+        <v>1</v>
+      </c>
+      <c r="G111" s="9">
+        <v>1</v>
+      </c>
+      <c r="I111" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4290,10 +4492,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U109"/>
+  <dimension ref="A76:U111"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L114" sqref="L114"/>
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5186,6 +5388,88 @@
         <v>9</v>
       </c>
     </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>2</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>3</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1">
+        <v>2</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>0</v>
+      </c>
+      <c r="R110" s="1">
+        <v>0</v>
+      </c>
+      <c r="S110" s="1">
+        <v>2</v>
+      </c>
+      <c r="T110" s="1">
+        <v>3</v>
+      </c>
+      <c r="U110" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>2</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1</v>
+      </c>
+      <c r="K111" s="1">
+        <v>2</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>0</v>
+      </c>
+      <c r="R111" s="1">
+        <v>0</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+      <c r="T111" s="1">
+        <v>2</v>
+      </c>
+      <c r="U111" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5194,10 +5478,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A91:AK109"/>
+  <dimension ref="A91:AK111"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+      <selection activeCell="W116" sqref="W116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5959,6 +6243,85 @@
         <v>0</v>
       </c>
     </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A110" s="9">
+        <v>1</v>
+      </c>
+      <c r="D110" s="9">
+        <v>1</v>
+      </c>
+      <c r="G110" s="9">
+        <v>1</v>
+      </c>
+      <c r="I110" s="9">
+        <v>1</v>
+      </c>
+      <c r="J110" s="9">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>1</v>
+      </c>
+      <c r="P110" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>7</v>
+      </c>
+      <c r="R110" s="1">
+        <v>9</v>
+      </c>
+      <c r="V110" s="1">
+        <v>2</v>
+      </c>
+      <c r="W110" s="1">
+        <v>0</v>
+      </c>
+      <c r="X110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B111" s="7">
+        <v>2</v>
+      </c>
+      <c r="C111" s="9">
+        <v>1</v>
+      </c>
+      <c r="D111" s="9">
+        <v>1</v>
+      </c>
+      <c r="G111" s="9">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1">
+        <v>2</v>
+      </c>
+      <c r="O111" s="1">
+        <v>2</v>
+      </c>
+      <c r="P111" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>4</v>
+      </c>
+      <c r="R111" s="1">
+        <v>7</v>
+      </c>
+      <c r="V111" s="1">
+        <v>2</v>
+      </c>
+      <c r="W111" s="1">
+        <v>2</v>
+      </c>
+      <c r="X111" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="4">
         <v>11</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -1299,6 +1299,9 @@
       <c r="H19" s="1">
         <v>3</v>
       </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
@@ -1319,8 +1322,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1338,6 +1344,12 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
         <v>0</v>
       </c>
       <c r="K20" s="4">
@@ -1353,10 +1365,13 @@
         <v>6</v>
       </c>
       <c r="O20" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -1375,8 +1390,11 @@
       <c r="H21" s="1">
         <v>2</v>
       </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
       <c r="K21" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21" s="4">
         <v>1</v>
@@ -1395,6 +1413,9 @@
       <c r="D22" s="1">
         <v>4</v>
       </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
@@ -1404,8 +1425,11 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
       <c r="L22" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="4">
         <v>1</v>
@@ -1421,6 +1445,9 @@
       <c r="D23" s="1">
         <v>3</v>
       </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
@@ -1438,10 +1465,16 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
         <v>2</v>
       </c>
       <c r="H24" s="1">
@@ -1473,7 +1506,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1498,6 +1531,9 @@
       <c r="M27" s="4">
         <v>0</v>
       </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F28" s="1">
@@ -1509,6 +1545,9 @@
       <c r="M28" s="4">
         <v>0</v>
       </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F29" s="1">
@@ -1520,6 +1559,9 @@
       <c r="M29" s="4">
         <v>8</v>
       </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F30" s="1">
@@ -1534,10 +1576,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F31" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H31" s="1">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="M31" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1548,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A75:AD115"/>
+  <dimension ref="A75:AD117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="W118" sqref="W118"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="S122" sqref="S122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3843,13 +3888,13 @@
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N107" s="6">
         <v>2</v>
       </c>
       <c r="O107" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P107" s="6">
         <v>0</v>
@@ -3909,17 +3954,17 @@
       <c r="M108" s="6">
         <v>0</v>
       </c>
-      <c r="N108" s="5">
-        <v>2</v>
-      </c>
-      <c r="O108" s="5">
-        <v>2</v>
+      <c r="N108" s="6">
+        <v>4</v>
+      </c>
+      <c r="O108" s="6">
+        <v>5</v>
       </c>
       <c r="P108" s="6">
         <v>0</v>
       </c>
       <c r="Q108" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R108" s="5"/>
       <c r="S108" s="3">
@@ -3928,6 +3973,12 @@
       <c r="T108" s="3">
         <v>0</v>
       </c>
+      <c r="U108" s="3">
+        <v>4</v>
+      </c>
+      <c r="V108" s="3">
+        <v>5</v>
+      </c>
       <c r="Z108" s="1">
         <v>0</v>
       </c>
@@ -3973,8 +4024,8 @@
       <c r="M109" s="6">
         <v>0</v>
       </c>
-      <c r="N109" s="5">
-        <v>1</v>
+      <c r="N109" s="6">
+        <v>2</v>
       </c>
       <c r="O109" s="6">
         <v>0</v>
@@ -3982,9 +4033,10 @@
       <c r="P109" s="6">
         <v>1</v>
       </c>
-      <c r="Q109" s="5">
-        <v>1</v>
-      </c>
+      <c r="Q109" s="6">
+        <v>2</v>
+      </c>
+      <c r="R109" s="5"/>
       <c r="S109" s="3">
         <v>0</v>
       </c>
@@ -3993,6 +4045,12 @@
       </c>
       <c r="U109" s="3">
         <v>1</v>
+      </c>
+      <c r="V109" s="3">
+        <v>2</v>
+      </c>
+      <c r="W109" s="3">
+        <v>2</v>
       </c>
       <c r="Z109" s="1">
         <v>0</v>
@@ -4039,8 +4097,8 @@
         <v>11</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="5">
-        <v>0</v>
+      <c r="M110" s="6">
+        <v>2</v>
       </c>
       <c r="N110" s="6">
         <v>0</v>
@@ -4048,17 +4106,27 @@
       <c r="O110" s="6">
         <v>0</v>
       </c>
-      <c r="P110" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="5">
-        <v>0</v>
-      </c>
+      <c r="P110" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q110" s="6">
+        <v>1</v>
+      </c>
+      <c r="R110" s="5"/>
       <c r="S110" s="3">
         <v>0</v>
       </c>
       <c r="T110" s="3">
         <v>0</v>
+      </c>
+      <c r="U110" s="3">
+        <v>1</v>
+      </c>
+      <c r="V110" s="3">
+        <v>2</v>
+      </c>
+      <c r="W110" s="3">
+        <v>2</v>
       </c>
       <c r="Z110" s="1">
         <v>0</v>
@@ -4106,18 +4174,25 @@
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N111" s="5">
-        <v>0</v>
-      </c>
-      <c r="O111" s="5">
+        <v>3</v>
+      </c>
+      <c r="O111" s="6">
         <v>0</v>
       </c>
       <c r="P111" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q111" s="6">
+        <v>0</v>
+      </c>
+      <c r="R111" s="5"/>
+      <c r="S111" s="3">
+        <v>0</v>
+      </c>
+      <c r="T111" s="3">
         <v>0</v>
       </c>
       <c r="Z111" s="1">
@@ -4134,36 +4209,218 @@
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1">
+        <v>2</v>
+      </c>
+      <c r="K112" s="1">
+        <v>2</v>
+      </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-    </row>
-    <row r="113" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="M112" s="5">
+        <v>2</v>
+      </c>
+      <c r="N112" s="5">
+        <v>2</v>
+      </c>
+      <c r="O112" s="6">
+        <v>0</v>
+      </c>
+      <c r="P112" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q112" s="6">
+        <v>0</v>
+      </c>
+      <c r="R112" s="5"/>
+      <c r="S112" s="3">
+        <v>0</v>
+      </c>
+      <c r="T112" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB112" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>2</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>2</v>
+      </c>
+      <c r="J113" s="1">
+        <v>2</v>
+      </c>
+      <c r="K113" s="1">
+        <v>4</v>
+      </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-    </row>
-    <row r="114" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="M113" s="6">
+        <v>0</v>
+      </c>
+      <c r="N113" s="6">
+        <v>0</v>
+      </c>
+      <c r="O113" s="6">
+        <v>0</v>
+      </c>
+      <c r="P113" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="6">
+        <v>0</v>
+      </c>
+      <c r="R113" s="5"/>
+      <c r="S113" s="3">
+        <v>0</v>
+      </c>
+      <c r="T113" s="3">
+        <v>0</v>
+      </c>
+      <c r="U113" s="3">
+        <v>0</v>
+      </c>
+      <c r="V113" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB113" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>5</v>
+      </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-    </row>
-    <row r="115" spans="12:17" x14ac:dyDescent="0.15">
+      <c r="M114" s="5">
+        <v>0</v>
+      </c>
+      <c r="N114" s="5">
+        <v>0</v>
+      </c>
+      <c r="O114" s="5">
+        <v>0</v>
+      </c>
+      <c r="P114" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="5">
+        <v>0</v>
+      </c>
+      <c r="R114" s="5"/>
+      <c r="Z114" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.15">
       <c r="L115" s="4"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4174,10 +4431,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A90:L111"/>
+  <dimension ref="A90:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4484,6 +4741,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A112" s="7">
+        <v>2</v>
+      </c>
+      <c r="B112" s="9">
+        <v>1</v>
+      </c>
+      <c r="C112" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="7">
+        <v>2</v>
+      </c>
+      <c r="C113" s="7">
+        <v>2</v>
+      </c>
+      <c r="E113" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="7">
+        <v>4</v>
+      </c>
+      <c r="F114" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4492,10 +4779,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U111"/>
+  <dimension ref="A76:U114"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4695,7 +4982,7 @@
       <c r="A93" s="1">
         <v>2</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>2</v>
       </c>
       <c r="C93" s="1">
@@ -4736,7 +5023,7 @@
       <c r="A94" s="1">
         <v>2</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <v>0</v>
       </c>
       <c r="C94" s="1">
@@ -4777,7 +5064,7 @@
       <c r="A95" s="1">
         <v>2</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <v>3</v>
       </c>
       <c r="C95" s="1">
@@ -4818,7 +5105,7 @@
       <c r="A96" s="1">
         <v>1</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <v>1</v>
       </c>
       <c r="C96" s="1">
@@ -4859,7 +5146,7 @@
       <c r="A97" s="1">
         <v>2</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <v>1</v>
       </c>
       <c r="C97" s="1">
@@ -5468,6 +5755,129 @@
       </c>
       <c r="U111" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>0</v>
+      </c>
+      <c r="R112" s="1">
+        <v>0</v>
+      </c>
+      <c r="S112" s="1">
+        <v>8</v>
+      </c>
+      <c r="T112" s="1">
+        <v>11</v>
+      </c>
+      <c r="U112" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>2</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1</v>
+      </c>
+      <c r="K113" s="1">
+        <v>1</v>
+      </c>
+      <c r="L113" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>0</v>
+      </c>
+      <c r="R113" s="1">
+        <v>1</v>
+      </c>
+      <c r="S113" s="1">
+        <v>2</v>
+      </c>
+      <c r="T113" s="1">
+        <v>2</v>
+      </c>
+      <c r="U113" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1">
+        <v>2</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>0</v>
+      </c>
+      <c r="R114" s="1">
+        <v>2</v>
+      </c>
+      <c r="S114" s="1">
+        <v>2</v>
+      </c>
+      <c r="T114" s="1">
+        <v>2</v>
+      </c>
+      <c r="U114" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5478,10 +5888,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A91:AK111"/>
+  <dimension ref="A91:AK114"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="W116" sqref="W116"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="R121" sqref="R121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6322,6 +6732,123 @@
         <v>0</v>
       </c>
     </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="C112" s="7">
+        <v>2</v>
+      </c>
+      <c r="D112" s="9">
+        <v>1</v>
+      </c>
+      <c r="G112" s="9">
+        <v>1</v>
+      </c>
+      <c r="J112" s="9">
+        <v>1</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>3</v>
+      </c>
+      <c r="P112" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>4</v>
+      </c>
+      <c r="R112" s="1">
+        <v>7</v>
+      </c>
+      <c r="V112" s="1">
+        <v>3</v>
+      </c>
+      <c r="W112" s="1">
+        <v>0</v>
+      </c>
+      <c r="X112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A113" s="9">
+        <v>1</v>
+      </c>
+      <c r="D113" s="9">
+        <v>1</v>
+      </c>
+      <c r="E113" s="9">
+        <v>1</v>
+      </c>
+      <c r="I113" s="9">
+        <v>1</v>
+      </c>
+      <c r="J113" s="9">
+        <v>1</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>1</v>
+      </c>
+      <c r="P113" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>5</v>
+      </c>
+      <c r="R113" s="1">
+        <v>9</v>
+      </c>
+      <c r="V113" s="1">
+        <v>2</v>
+      </c>
+      <c r="W113" s="1">
+        <v>2</v>
+      </c>
+      <c r="X113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A114" s="7">
+        <v>2</v>
+      </c>
+      <c r="D114" s="9">
+        <v>1</v>
+      </c>
+      <c r="E114" s="9">
+        <v>1</v>
+      </c>
+      <c r="I114" s="9">
+        <v>1</v>
+      </c>
+      <c r="N114" s="1">
+        <v>1</v>
+      </c>
+      <c r="O114" s="1">
+        <v>1</v>
+      </c>
+      <c r="P114" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>5</v>
+      </c>
+      <c r="R114" s="1">
+        <v>9</v>
+      </c>
+      <c r="V114" s="1">
+        <v>4</v>
+      </c>
+      <c r="W114" s="1">
+        <v>0</v>
+      </c>
+      <c r="X114" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1390,8 +1390,11 @@
       <c r="H21" s="1">
         <v>2</v>
       </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
       <c r="J21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="4">
         <v>5</v>
@@ -1404,6 +1407,9 @@
       </c>
       <c r="N21" s="1">
         <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
@@ -1425,17 +1431,23 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
       <c r="K22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" s="4">
         <v>1</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -1466,16 +1478,19 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -1494,6 +1509,9 @@
       <c r="F25" s="1">
         <v>4</v>
       </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="1">
         <v>2</v>
       </c>
@@ -1522,6 +1540,9 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
@@ -1560,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="N29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
@@ -1571,6 +1592,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1579,10 +1603,18 @@
         <v>7</v>
       </c>
       <c r="H31" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M31" s="4">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1593,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A75:AD117"/>
+  <dimension ref="A75:AD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="S122" sqref="S122"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3887,14 +3919,14 @@
         <v>3</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>7</v>
       </c>
       <c r="N107" s="6">
         <v>2</v>
       </c>
-      <c r="O107" s="5">
-        <v>7</v>
+      <c r="O107" s="6">
+        <v>8</v>
       </c>
       <c r="P107" s="6">
         <v>0</v>
@@ -3911,6 +3943,12 @@
       </c>
       <c r="U107" s="3">
         <v>2</v>
+      </c>
+      <c r="V107" s="3">
+        <v>7</v>
+      </c>
+      <c r="W107" s="3">
+        <v>8</v>
       </c>
       <c r="Z107" s="1">
         <v>0</v>
@@ -3963,7 +4001,7 @@
       <c r="P108" s="6">
         <v>0</v>
       </c>
-      <c r="Q108" s="5">
+      <c r="Q108" s="6">
         <v>6</v>
       </c>
       <c r="R108" s="5"/>
@@ -3978,6 +4016,9 @@
       </c>
       <c r="V108" s="3">
         <v>5</v>
+      </c>
+      <c r="W108" s="3">
+        <v>6</v>
       </c>
       <c r="Z108" s="1">
         <v>0</v>
@@ -4174,16 +4215,16 @@
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="5">
-        <v>3</v>
-      </c>
-      <c r="N111" s="5">
+        <v>5</v>
+      </c>
+      <c r="N111" s="6">
         <v>3</v>
       </c>
       <c r="O111" s="6">
         <v>0</v>
       </c>
       <c r="P111" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q111" s="6">
         <v>0</v>
@@ -4195,6 +4236,9 @@
       <c r="T111" s="3">
         <v>0</v>
       </c>
+      <c r="U111" s="3">
+        <v>3</v>
+      </c>
       <c r="Z111" s="1">
         <v>0</v>
       </c>
@@ -4241,16 +4285,16 @@
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="5">
-        <v>2</v>
-      </c>
-      <c r="N112" s="5">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N112" s="6">
+        <v>3</v>
       </c>
       <c r="O112" s="6">
         <v>0</v>
       </c>
       <c r="P112" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q112" s="6">
         <v>0</v>
@@ -4262,6 +4306,9 @@
       <c r="T112" s="3">
         <v>0</v>
       </c>
+      <c r="U112" s="3">
+        <v>3</v>
+      </c>
       <c r="Z112" s="1">
         <v>0</v>
       </c>
@@ -4272,7 +4319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -4313,8 +4360,8 @@
       <c r="O113" s="6">
         <v>0</v>
       </c>
-      <c r="P113" s="5">
-        <v>1</v>
+      <c r="P113" s="6">
+        <v>2</v>
       </c>
       <c r="Q113" s="6">
         <v>0</v>
@@ -4332,6 +4379,9 @@
       <c r="V113" s="3">
         <v>0</v>
       </c>
+      <c r="W113" s="3">
+        <v>2</v>
+      </c>
       <c r="Z113" s="1">
         <v>0</v>
       </c>
@@ -4342,7 +4392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -4375,21 +4425,30 @@
       </c>
       <c r="L114" s="4"/>
       <c r="M114" s="5">
-        <v>0</v>
-      </c>
-      <c r="N114" s="5">
-        <v>0</v>
-      </c>
-      <c r="O114" s="5">
+        <v>2</v>
+      </c>
+      <c r="N114" s="6">
+        <v>0</v>
+      </c>
+      <c r="O114" s="6">
         <v>0</v>
       </c>
       <c r="P114" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Q114" s="6">
+        <v>1</v>
       </c>
       <c r="R114" s="5"/>
+      <c r="S114" s="3">
+        <v>0</v>
+      </c>
+      <c r="T114" s="3">
+        <v>0</v>
+      </c>
+      <c r="U114" s="3">
+        <v>1</v>
+      </c>
       <c r="Z114" s="1">
         <v>0</v>
       </c>
@@ -4397,30 +4456,166 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>3</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1">
+        <v>7</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>6</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>3</v>
+      </c>
+      <c r="J115" s="1">
+        <v>6</v>
+      </c>
+      <c r="K115" s="1">
+        <v>7</v>
+      </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
+      <c r="M115" s="5">
+        <v>1</v>
+      </c>
+      <c r="N115" s="5">
+        <v>1</v>
+      </c>
+      <c r="O115" s="5">
+        <v>1</v>
+      </c>
+      <c r="P115" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="6">
+        <v>0</v>
+      </c>
       <c r="R115" s="5"/>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
+      <c r="S115" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB115" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC115" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>3</v>
+      </c>
+      <c r="B116" s="1">
+        <v>8</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1">
+        <v>2</v>
+      </c>
+      <c r="J116" s="1">
+        <v>3</v>
+      </c>
+      <c r="K116" s="1">
+        <v>8</v>
+      </c>
+      <c r="L116" s="4"/>
+      <c r="M116" s="5">
+        <v>0</v>
+      </c>
+      <c r="N116" s="5">
+        <v>0</v>
+      </c>
+      <c r="O116" s="5">
+        <v>0</v>
+      </c>
+      <c r="P116" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>0</v>
+      </c>
       <c r="R116" s="5"/>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Z116" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB116" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC116" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD116" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L117" s="4"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L118" s="4"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L119" s="4"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L120" s="4"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4431,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A90:L114"/>
+  <dimension ref="A90:L116"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
+      <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4752,7 +4947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="7">
         <v>2</v>
       </c>
@@ -4763,11 +4958,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="7">
         <v>4</v>
       </c>
       <c r="F114" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" s="7">
+        <v>2</v>
+      </c>
+      <c r="D115" s="9">
+        <v>1</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1</v>
+      </c>
+      <c r="H115" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116" s="9">
+        <v>1</v>
+      </c>
+      <c r="B116" s="9">
+        <v>1</v>
+      </c>
+      <c r="C116" s="9">
+        <v>1</v>
+      </c>
+      <c r="D116" s="9">
+        <v>1</v>
+      </c>
+      <c r="I116" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4779,10 +5005,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U114"/>
+  <dimension ref="A76:U116"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5880,6 +6106,88 @@
         <v>4</v>
       </c>
     </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1">
+        <v>1</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>0</v>
+      </c>
+      <c r="R115" s="1">
+        <v>0</v>
+      </c>
+      <c r="S115" s="1">
+        <v>0</v>
+      </c>
+      <c r="T115" s="1">
+        <v>0</v>
+      </c>
+      <c r="U115" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1">
+        <v>1</v>
+      </c>
+      <c r="K116" s="1">
+        <v>1</v>
+      </c>
+      <c r="L116" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>0</v>
+      </c>
+      <c r="R116" s="1">
+        <v>0</v>
+      </c>
+      <c r="S116" s="1">
+        <v>0</v>
+      </c>
+      <c r="T116" s="1">
+        <v>0</v>
+      </c>
+      <c r="U116" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5888,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A91:AK114"/>
+  <dimension ref="A91:AK116"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="R121" sqref="R121"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6849,6 +7157,85 @@
         <v>0</v>
       </c>
     </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="D115" s="9">
+        <v>1</v>
+      </c>
+      <c r="E115" s="7">
+        <v>2</v>
+      </c>
+      <c r="F115" s="9">
+        <v>1</v>
+      </c>
+      <c r="I115" s="9">
+        <v>1</v>
+      </c>
+      <c r="N115" s="1">
+        <v>4</v>
+      </c>
+      <c r="O115" s="1">
+        <v>5</v>
+      </c>
+      <c r="P115" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>6</v>
+      </c>
+      <c r="R115" s="1">
+        <v>9</v>
+      </c>
+      <c r="V115" s="1">
+        <v>3</v>
+      </c>
+      <c r="W115" s="1">
+        <v>1</v>
+      </c>
+      <c r="X115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="D116" s="9">
+        <v>1</v>
+      </c>
+      <c r="E116" s="9">
+        <v>1</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1</v>
+      </c>
+      <c r="H116" s="9">
+        <v>1</v>
+      </c>
+      <c r="J116" s="9">
+        <v>1</v>
+      </c>
+      <c r="N116" s="1">
+        <v>0</v>
+      </c>
+      <c r="O116" s="1">
+        <v>4</v>
+      </c>
+      <c r="P116" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>7</v>
+      </c>
+      <c r="R116" s="1">
+        <v>8</v>
+      </c>
+      <c r="V116" s="1">
+        <v>2</v>
+      </c>
+      <c r="W116" s="1">
+        <v>3</v>
+      </c>
+      <c r="X116" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1372,6 +1372,9 @@
       <c r="A21" s="1">
         <v>2</v>
       </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
@@ -1413,6 +1416,9 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
       <c r="C22" s="1">
         <v>11</v>
       </c>
@@ -1431,11 +1437,14 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
       <c r="J22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="4">
         <v>5</v>
@@ -1447,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
@@ -1469,6 +1478,15 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
       <c r="M23" s="4">
         <v>1</v>
       </c>
@@ -1478,13 +1496,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1503,6 +1521,9 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
@@ -1510,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
@@ -1529,6 +1550,9 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
       <c r="H26" s="1">
         <v>2</v>
       </c>
@@ -1557,6 +1581,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
@@ -1595,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -1606,14 +1633,17 @@
         <v>8</v>
       </c>
       <c r="M31" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1625,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A75:AD120"/>
+  <dimension ref="A75:AD122"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4214,7 +4244,7 @@
         <v>8</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="5">
+      <c r="M111" s="6">
         <v>5</v>
       </c>
       <c r="N111" s="6">
@@ -4223,7 +4253,7 @@
       <c r="O111" s="6">
         <v>0</v>
       </c>
-      <c r="P111" s="5">
+      <c r="P111" s="6">
         <v>5</v>
       </c>
       <c r="Q111" s="6">
@@ -4239,6 +4269,12 @@
       <c r="U111" s="3">
         <v>3</v>
       </c>
+      <c r="V111" s="3">
+        <v>5</v>
+      </c>
+      <c r="W111" s="3">
+        <v>5</v>
+      </c>
       <c r="Z111" s="1">
         <v>0</v>
       </c>
@@ -4284,8 +4320,8 @@
         <v>2</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="5">
-        <v>4</v>
+      <c r="M112" s="6">
+        <v>5</v>
       </c>
       <c r="N112" s="6">
         <v>3</v>
@@ -4293,8 +4329,8 @@
       <c r="O112" s="6">
         <v>0</v>
       </c>
-      <c r="P112" s="5">
-        <v>4</v>
+      <c r="P112" s="6">
+        <v>5</v>
       </c>
       <c r="Q112" s="6">
         <v>0</v>
@@ -4309,6 +4345,12 @@
       <c r="U112" s="3">
         <v>3</v>
       </c>
+      <c r="V112" s="3">
+        <v>5</v>
+      </c>
+      <c r="W112" s="3">
+        <v>5</v>
+      </c>
       <c r="Z112" s="1">
         <v>0</v>
       </c>
@@ -4424,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="5">
+      <c r="M114" s="6">
         <v>2</v>
       </c>
       <c r="N114" s="6">
@@ -4433,8 +4475,8 @@
       <c r="O114" s="6">
         <v>0</v>
       </c>
-      <c r="P114" s="5">
-        <v>2</v>
+      <c r="P114" s="6">
+        <v>3</v>
       </c>
       <c r="Q114" s="6">
         <v>1</v>
@@ -4449,6 +4491,12 @@
       <c r="U114" s="3">
         <v>1</v>
       </c>
+      <c r="V114" s="3">
+        <v>2</v>
+      </c>
+      <c r="W114" s="3">
+        <v>3</v>
+      </c>
       <c r="Z114" s="1">
         <v>0</v>
       </c>
@@ -4488,16 +4536,16 @@
         <v>7</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="5">
+      <c r="M115" s="6">
         <v>1</v>
       </c>
       <c r="N115" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O115" s="5">
-        <v>1</v>
-      </c>
-      <c r="P115" s="5">
+        <v>3</v>
+      </c>
+      <c r="P115" s="6">
         <v>1</v>
       </c>
       <c r="Q115" s="6">
@@ -4507,6 +4555,12 @@
       <c r="S115" s="3">
         <v>0</v>
       </c>
+      <c r="T115" s="3">
+        <v>1</v>
+      </c>
+      <c r="U115" s="3">
+        <v>1</v>
+      </c>
       <c r="Z115" s="1">
         <v>0</v>
       </c>
@@ -4552,22 +4606,28 @@
         <v>8</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="5">
-        <v>0</v>
+      <c r="M116" s="6">
+        <v>1</v>
       </c>
       <c r="N116" s="5">
-        <v>0</v>
-      </c>
-      <c r="O116" s="5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O116" s="6">
+        <v>1</v>
       </c>
       <c r="P116" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q116" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R116" s="5"/>
+      <c r="S116" s="3">
+        <v>1</v>
+      </c>
+      <c r="T116" s="3">
+        <v>1</v>
+      </c>
       <c r="Z116" s="1">
         <v>0</v>
       </c>
@@ -4585,21 +4645,119 @@
       </c>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1">
+        <v>5</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1">
+        <v>2</v>
+      </c>
+      <c r="J117" s="1">
+        <v>5</v>
+      </c>
+      <c r="K117" s="1">
+        <v>5</v>
+      </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
+      <c r="M117" s="5">
+        <v>1</v>
+      </c>
+      <c r="N117" s="5">
+        <v>1</v>
+      </c>
+      <c r="O117" s="5">
+        <v>1</v>
+      </c>
+      <c r="P117" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>1</v>
+      </c>
       <c r="R117" s="5"/>
+      <c r="Z117" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA117" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB117" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>5</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1">
+        <v>5</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1">
+        <v>3</v>
+      </c>
+      <c r="J118" s="1">
+        <v>5</v>
+      </c>
+      <c r="K118" s="1">
+        <v>5</v>
+      </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
+      <c r="M118" s="5">
+        <v>0</v>
+      </c>
+      <c r="N118" s="5">
+        <v>0</v>
+      </c>
+      <c r="O118" s="5">
+        <v>0</v>
+      </c>
+      <c r="P118" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA118" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB118" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.15">
       <c r="L119" s="4"/>
@@ -4616,6 +4774,20 @@
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4626,10 +4798,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A90:L116"/>
+  <dimension ref="A90:L118"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L121" sqref="L121"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4997,6 +5169,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B117" s="7">
+        <v>2</v>
+      </c>
+      <c r="C117" s="9">
+        <v>1</v>
+      </c>
+      <c r="F117" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B118" s="7">
+        <v>2</v>
+      </c>
+      <c r="D118" s="9">
+        <v>1</v>
+      </c>
+      <c r="F118" s="7">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5005,10 +5199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U116"/>
+  <dimension ref="A76:U118"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+      <selection activeCell="U122" sqref="U122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6188,6 +6382,88 @@
         <v>6</v>
       </c>
     </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>0</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>4</v>
+      </c>
+      <c r="H117" s="1">
+        <v>3</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>2</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>0</v>
+      </c>
+      <c r="R117" s="1">
+        <v>0</v>
+      </c>
+      <c r="S117" s="1">
+        <v>1</v>
+      </c>
+      <c r="T117" s="1">
+        <v>3</v>
+      </c>
+      <c r="U117" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>0</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>2</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>1</v>
+      </c>
+      <c r="K118" s="1">
+        <v>2</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>0</v>
+      </c>
+      <c r="R118" s="1">
+        <v>2</v>
+      </c>
+      <c r="S118" s="1">
+        <v>2</v>
+      </c>
+      <c r="T118" s="1">
+        <v>3</v>
+      </c>
+      <c r="U118" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6196,10 +6472,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A91:AK116"/>
+  <dimension ref="A91:AK118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7236,6 +7512,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A117" s="9">
+        <v>1</v>
+      </c>
+      <c r="B117" s="7">
+        <v>2</v>
+      </c>
+      <c r="D117" s="9">
+        <v>1</v>
+      </c>
+      <c r="I117" s="9">
+        <v>1</v>
+      </c>
+      <c r="N117" s="1">
+        <v>1</v>
+      </c>
+      <c r="O117" s="1">
+        <v>2</v>
+      </c>
+      <c r="P117" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>4</v>
+      </c>
+      <c r="R117" s="1">
+        <v>9</v>
+      </c>
+      <c r="V117" s="1">
+        <v>1</v>
+      </c>
+      <c r="W117" s="1">
+        <v>1</v>
+      </c>
+      <c r="X117" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A118" s="9">
+        <v>1</v>
+      </c>
+      <c r="C118" s="7">
+        <v>2</v>
+      </c>
+      <c r="G118" s="9">
+        <v>1</v>
+      </c>
+      <c r="J118" s="9">
+        <v>1</v>
+      </c>
+      <c r="N118" s="1">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>1</v>
+      </c>
+      <c r="P118" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>3</v>
+      </c>
+      <c r="R118" s="1">
+        <v>7</v>
+      </c>
+      <c r="V118" s="1">
+        <v>1</v>
+      </c>
+      <c r="W118" s="1">
+        <v>2</v>
+      </c>
+      <c r="X118" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_back/cp/15.xlsx
+++ b/_back/cp/15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +68,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -81,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,6 +117,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1417,7 +1426,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>11</v>
@@ -1438,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
@@ -1456,10 +1468,16 @@
         <v>1</v>
       </c>
       <c r="O22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
@@ -1479,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="4">
         <v>1</v>
@@ -1493,8 +1511,14 @@
       <c r="N23" s="1">
         <v>0</v>
       </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
@@ -1502,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1512,6 +1536,9 @@
       </c>
       <c r="H24" s="1">
         <v>2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <v>0</v>
@@ -1536,6 +1563,9 @@
       <c r="H25" s="1">
         <v>2</v>
       </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
       <c r="M25" s="4">
         <v>2</v>
       </c>
@@ -1544,6 +1574,9 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
@@ -1551,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -1564,10 +1597,16 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
@@ -1598,6 +1637,9 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
@@ -1622,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -1638,12 +1680,28 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F32" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1">
         <v>2</v>
       </c>
       <c r="M32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1657,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A75:AD122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="Q130" sqref="Q130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4540,10 +4598,10 @@
         <v>1</v>
       </c>
       <c r="N115" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O115" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P115" s="6">
         <v>1</v>
@@ -4609,17 +4667,17 @@
       <c r="M116" s="6">
         <v>1</v>
       </c>
-      <c r="N116" s="5">
+      <c r="N116" s="6">
         <v>2</v>
       </c>
       <c r="O116" s="6">
         <v>1</v>
       </c>
       <c r="P116" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q116" s="5">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="Q116" s="11">
+        <v>4</v>
       </c>
       <c r="R116" s="5"/>
       <c r="S116" s="3">
@@ -4628,6 +4686,12 @@
       <c r="T116" s="3">
         <v>1</v>
       </c>
+      <c r="U116" s="3">
+        <v>2</v>
+      </c>
+      <c r="V116" s="3">
+        <v>4</v>
+      </c>
       <c r="Z116" s="1">
         <v>0</v>
       </c>
@@ -4676,22 +4740,34 @@
         <v>5</v>
       </c>
       <c r="L117" s="4"/>
-      <c r="M117" s="5">
-        <v>1</v>
-      </c>
-      <c r="N117" s="5">
-        <v>1</v>
-      </c>
-      <c r="O117" s="5">
+      <c r="M117" s="6">
+        <v>2</v>
+      </c>
+      <c r="N117" s="6">
+        <v>1</v>
+      </c>
+      <c r="O117" s="6">
         <v>1</v>
       </c>
       <c r="P117" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q117" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q117" s="6">
         <v>1</v>
       </c>
       <c r="R117" s="5"/>
+      <c r="S117" s="3">
+        <v>1</v>
+      </c>
+      <c r="T117" s="3">
+        <v>1</v>
+      </c>
+      <c r="U117" s="3">
+        <v>1</v>
+      </c>
+      <c r="V117" s="3">
+        <v>2</v>
+      </c>
       <c r="Z117" s="1">
         <v>1</v>
       </c>
@@ -4734,20 +4810,29 @@
         <v>5</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="5">
-        <v>0</v>
-      </c>
-      <c r="N118" s="5">
-        <v>0</v>
+      <c r="M118" s="6">
+        <v>0</v>
+      </c>
+      <c r="N118" s="11">
+        <v>2</v>
       </c>
       <c r="O118" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P118" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q118" s="5">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="Q118" s="6">
+        <v>1</v>
+      </c>
+      <c r="S118" s="3">
+        <v>0</v>
+      </c>
+      <c r="T118" s="3">
+        <v>1</v>
+      </c>
+      <c r="U118" s="3">
+        <v>2</v>
       </c>
       <c r="Z118" s="1">
         <v>1</v>
@@ -4760,27 +4845,195 @@
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1">
+        <v>2</v>
+      </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
+      <c r="M119" s="6">
+        <v>0</v>
+      </c>
+      <c r="N119" s="11">
+        <v>1</v>
+      </c>
+      <c r="O119" s="5">
+        <v>2</v>
+      </c>
+      <c r="P119" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>0</v>
+      </c>
+      <c r="S119" s="3">
+        <v>0</v>
+      </c>
+      <c r="T119" s="3">
+        <v>0</v>
+      </c>
+      <c r="U119" s="3">
+        <v>0</v>
+      </c>
+      <c r="V119" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z119" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB119" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>2</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>1</v>
+      </c>
+      <c r="K120" s="1">
+        <v>2</v>
+      </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="5"/>
+      <c r="M120" s="5">
+        <v>1</v>
+      </c>
+      <c r="N120" s="11">
+        <v>0</v>
+      </c>
+      <c r="O120" s="5">
+        <v>1</v>
+      </c>
+      <c r="P120" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="11">
+        <v>0</v>
+      </c>
+      <c r="S120" s="3">
+        <v>0</v>
+      </c>
+      <c r="T120" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB120" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
+      <c r="A121" s="1">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>4</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1">
+        <v>2</v>
+      </c>
+      <c r="K121" s="1">
+        <v>4</v>
+      </c>
+      <c r="M121" s="5">
+        <v>0</v>
+      </c>
+      <c r="N121" s="5">
+        <v>0</v>
+      </c>
+      <c r="O121" s="5">
+        <v>0</v>
+      </c>
+      <c r="P121" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z121" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB121" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC121" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.15">
       <c r="M122" s="5"/>
@@ -4798,10 +5051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A90:L118"/>
+  <dimension ref="A90:L121"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5191,6 +5444,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="9">
+        <v>1</v>
+      </c>
+      <c r="B119" s="7">
+        <v>3</v>
+      </c>
+      <c r="C119" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" s="7">
+        <v>3</v>
+      </c>
+      <c r="B120" s="9">
+        <v>1</v>
+      </c>
+      <c r="C120" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" s="7">
+        <v>3</v>
+      </c>
+      <c r="B121" s="9">
+        <v>1</v>
+      </c>
+      <c r="C121" s="9">
+        <v>1</v>
+      </c>
+      <c r="E121" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5199,10 +5488,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A76:U118"/>
+  <dimension ref="A76:U121"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="U122" sqref="U122"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="M129" sqref="M129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6464,6 +6753,129 @@
         <v>5</v>
       </c>
     </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1">
+        <v>4</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1">
+        <v>2</v>
+      </c>
+      <c r="J119" s="1">
+        <v>1</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>1</v>
+      </c>
+      <c r="R119" s="1">
+        <v>5</v>
+      </c>
+      <c r="S119" s="1">
+        <v>5</v>
+      </c>
+      <c r="T119" s="1">
+        <v>5</v>
+      </c>
+      <c r="U119" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>3</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>2</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>1</v>
+      </c>
+      <c r="L120" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>1</v>
+      </c>
+      <c r="R120" s="1">
+        <v>1</v>
+      </c>
+      <c r="S120" s="1">
+        <v>2</v>
+      </c>
+      <c r="T120" s="1">
+        <v>2</v>
+      </c>
+      <c r="U120" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>2</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>3</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>0</v>
+      </c>
+      <c r="R121" s="1">
+        <v>0</v>
+      </c>
+      <c r="S121" s="1">
+        <v>0</v>
+      </c>
+      <c r="T121" s="1">
+        <v>1</v>
+      </c>
+      <c r="U121" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6472,7 +6884,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A91:AK118"/>
+  <dimension ref="A91:AK121"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="J128" sqref="J128"/>
@@ -7588,6 +8000,102 @@
         <v>1</v>
       </c>
     </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B119" s="7">
+        <v>2</v>
+      </c>
+      <c r="C119" s="9">
+        <v>1</v>
+      </c>
+      <c r="D119" s="9">
+        <v>1</v>
+      </c>
+      <c r="H119" s="9">
+        <v>1</v>
+      </c>
+      <c r="N119" s="1">
+        <v>2</v>
+      </c>
+      <c r="O119" s="1">
+        <v>2</v>
+      </c>
+      <c r="P119" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>4</v>
+      </c>
+      <c r="R119" s="1">
+        <v>8</v>
+      </c>
+      <c r="V119" s="1">
+        <v>1</v>
+      </c>
+      <c r="W119" s="1">
+        <v>3</v>
+      </c>
+      <c r="X119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A120" s="9">
+        <v>1</v>
+      </c>
+      <c r="B120" s="7">
+        <v>2</v>
+      </c>
+      <c r="C120" s="9">
+        <v>1</v>
+      </c>
+      <c r="H120" s="9">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1">
+        <v>1</v>
+      </c>
+      <c r="O120" s="1">
+        <v>2</v>
+      </c>
+      <c r="P120" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>3</v>
+      </c>
+      <c r="R120" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B121" s="9">
+        <v>1</v>
+      </c>
+      <c r="C121" s="7">
+        <v>2</v>
+      </c>
+      <c r="E121" s="9">
+        <v>1</v>
+      </c>
+      <c r="G121" s="9">
+        <v>1</v>
+      </c>
+      <c r="N121" s="1">
+        <v>2</v>
+      </c>
+      <c r="O121" s="1">
+        <v>3</v>
+      </c>
+      <c r="P121" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>5</v>
+      </c>
+      <c r="R121" s="1">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
